--- a/Jogos_da_Semana_FlashScore_2024-09-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD46"/>
+  <dimension ref="A1:BD45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,46 +747,46 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H2" t="n">
         <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
         <v>1.8</v>
@@ -795,7 +795,7 @@
         <v>1.95</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
         <v>7.5</v>
@@ -813,7 +813,7 @@
         <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
         <v>8.5</v>
@@ -825,16 +825,16 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>67</v>
@@ -861,13 +861,13 @@
         <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -888,7 +888,7 @@
         <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC2" t="n">
         <v>201</v>
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
@@ -983,7 +983,7 @@
         <v>7.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>15</v>
@@ -1010,10 +1010,10 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>17</v>
@@ -1031,7 +1031,7 @@
         <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -1058,7 +1058,7 @@
         <v>126</v>
       </c>
       <c r="AX3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY3" t="n">
         <v>29</v>
@@ -1076,7 +1076,7 @@
         <v>401</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
@@ -1162,7 +1162,7 @@
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
@@ -1195,7 +1195,7 @@
         <v>6.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ4" t="n">
         <v>13</v>
@@ -1296,7 +1296,7 @@
         <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
         <v>4.75</v>
@@ -1311,22 +1311,22 @@
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
         <v>1.62</v>
@@ -1374,7 +1374,7 @@
         <v>501</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1431,7 +1431,7 @@
         <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
         <v>151</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
@@ -1517,22 +1517,22 @@
         <v>2.38</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
         <v>5.5</v>
       </c>
       <c r="X6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
         <v>19</v>
@@ -1544,13 +1544,13 @@
         <v>6.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
         <v>501</v>
@@ -1595,10 +1595,10 @@
         <v>2.38</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
         <v>126</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1705,10 +1705,10 @@
         <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
         <v>10</v>
@@ -1735,37 +1735,37 @@
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
         <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM7" t="n">
         <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
         <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
         <v>67</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -1857,10 +1857,10 @@
         <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1890,13 +1890,13 @@
         <v>5</v>
       </c>
       <c r="X8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y8" t="n">
         <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
@@ -1920,13 +1920,13 @@
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
         <v>67</v>
@@ -1935,19 +1935,19 @@
         <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN8" t="n">
         <v>3.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP8" t="n">
         <v>26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR8" t="n">
         <v>67</v>
@@ -1968,10 +1968,10 @@
         <v>81</v>
       </c>
       <c r="AX8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ8" t="n">
         <v>41</v>
@@ -2024,10 +2024,10 @@
         <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I9" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -2036,7 +2036,7 @@
         <v>1.83</v>
       </c>
       <c r="L9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M9" t="n">
         <v>1.14</v>
@@ -2045,19 +2045,19 @@
         <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S9" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T9" t="n">
         <v>2.1</v>
@@ -2069,7 +2069,7 @@
         <v>1.57</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
@@ -2111,7 +2111,7 @@
         <v>12</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
         <v>29</v>
@@ -2150,7 +2150,7 @@
         <v>81</v>
       </c>
       <c r="AX9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY9" t="n">
         <v>17</v>
@@ -2239,7 +2239,7 @@
         <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T10" t="n">
         <v>2.5</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
@@ -2400,13 +2400,13 @@
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -2421,7 +2421,7 @@
         <v>1.65</v>
       </c>
       <c r="S11" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T11" t="n">
         <v>2.5</v>
@@ -2469,13 +2469,13 @@
         <v>7.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ11" t="n">
         <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
         <v>23</v>
@@ -2508,7 +2508,7 @@
         <v>8.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
         <v>51</v>
@@ -2517,10 +2517,10 @@
         <v>4.75</v>
       </c>
       <c r="AY11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA11" t="n">
         <v>51</v>
@@ -2573,7 +2573,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -2582,28 +2582,28 @@
         <v>1.91</v>
       </c>
       <c r="L12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M12" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T12" t="n">
         <v>2.25</v>
@@ -2633,7 +2633,7 @@
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD12" t="n">
         <v>6</v>
@@ -2660,13 +2660,13 @@
         <v>23</v>
       </c>
       <c r="AL12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM12" t="n">
         <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO12" t="n">
         <v>19</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ldaFlzoC</t>
+          <t>0AugPvt9</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CYPRUS - CYTA CHAMPIONSHIP</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Paralimni</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Omonia Aradippou</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.32</v>
+        <v>1.3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="I13" t="n">
-        <v>3.05</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>2.92</v>
+        <v>1.73</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L13" t="n">
-        <v>3.55</v>
+        <v>7.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>6.8</v>
+        <v>19</v>
       </c>
       <c r="O13" t="n">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="P13" t="n">
-        <v>2.82</v>
+        <v>6</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.18</v>
+        <v>1.44</v>
       </c>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="S13" t="n">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="T13" t="n">
-        <v>2.65</v>
+        <v>4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="V13" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>6.8</v>
+        <v>9.5</v>
       </c>
       <c r="X13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD13" t="n">
         <v>11</v>
       </c>
-      <c r="Y13" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>900</v>
+        <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.25</v>
+        <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11.75</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AL13" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="AM13" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>12.5</v>
+        <v>6</v>
       </c>
       <c r="AP13" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AQ13" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AR13" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="AS13" t="n">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.62</v>
+        <v>4</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="AX13" t="n">
-        <v>4.8</v>
+        <v>9.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>16.5</v>
+        <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="BA13" t="n">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="BB13" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="BC13" t="n">
-        <v>350</v>
+        <v>201</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0AugPvt9</t>
+          <t>zNUPaDmo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,110 +2912,110 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>U. Catolica</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Aalborg</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="H14" t="n">
-        <v>5.25</v>
+        <v>4.33</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="K14" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="L14" t="n">
         <v>7.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="R14" t="n">
-        <v>2.7</v>
+        <v>1.98</v>
       </c>
       <c r="S14" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="T14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W14" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="X14" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z14" t="n">
         <v>9</v>
       </c>
       <c r="AA14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC14" t="n">
         <v>10</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AD14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE14" t="n">
         <v>21</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AF14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH14" t="n">
         <v>19</v>
       </c>
-      <c r="AD14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>29</v>
-      </c>
       <c r="AI14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ14" t="n">
         <v>26</v>
@@ -3024,67 +3024,67 @@
         <v>101</v>
       </c>
       <c r="AL14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM14" t="n">
         <v>51</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AO14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS14" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX14" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>451</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AY14" t="n">
         <v>41</v>
       </c>
       <c r="AZ14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA14" t="n">
         <v>151</v>
       </c>
       <c r="BB14" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC14" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BD14" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>zNUPaDmo</t>
+          <t>h0zIA59e</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,170 +3094,170 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>ICELAND - BESTA DEILD KARLA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>U. Catolica</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Delfin</t>
+          <t>Akranes</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>22</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P15" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="U15" t="n">
         <v>1.4</v>
       </c>
-      <c r="H15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L15" t="n">
-        <v>7</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V15" t="n">
-        <v>1.67</v>
+        <v>2.7</v>
       </c>
       <c r="W15" t="n">
-        <v>6.5</v>
+        <v>14.5</v>
       </c>
       <c r="X15" t="n">
-        <v>6.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
       </c>
       <c r="Z15" t="n">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AB15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH15" t="n">
         <v>29</v>
       </c>
-      <c r="AC15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>19</v>
-      </c>
       <c r="AI15" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AJ15" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AK15" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AL15" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="AM15" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.25</v>
+        <v>4.15</v>
       </c>
       <c r="AO15" t="n">
         <v>7</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="AU15" t="n">
-        <v>9.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV15" t="n">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="AW15" t="n">
-        <v>51</v>
+        <v>350</v>
       </c>
       <c r="AX15" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="AY15" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="AZ15" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="BC15" t="n">
-        <v>351</v>
+        <v>150</v>
       </c>
       <c r="BD15" t="n">
         <v>51</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>h0zIA59e</t>
+          <t>bcwQ8qv8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,160 +3286,160 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Valur</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Akranes</t>
+          <t>Stjarnan</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="I16" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="K16" t="n">
-        <v>2.77</v>
+        <v>2.62</v>
       </c>
       <c r="L16" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O16" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P16" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="R16" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="S16" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="T16" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="U16" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="V16" t="n">
-        <v>2.65</v>
+        <v>2.82</v>
       </c>
       <c r="W16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="X16" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
         <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AA16" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD16" t="n">
         <v>10.25</v>
       </c>
-      <c r="AB16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC16" t="n">
+      <c r="AE16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF16" t="n">
         <v>30</v>
       </c>
-      <c r="AD16" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF16" t="n">
+      <c r="AG16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI16" t="n">
         <v>35</v>
       </c>
-      <c r="AG16" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>45</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AL16" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AM16" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AO16" t="n">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="AP16" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AR16" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AS16" t="n">
         <v>80</v>
       </c>
       <c r="AT16" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="AU16" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AV16" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AW16" t="n">
         <v>350</v>
       </c>
       <c r="AX16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BA16" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="BB16" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="BC16" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BD16" t="n">
         <v>51</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bcwQ8qv8</t>
+          <t>GML5U8YJ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ICELAND - BESTA DEILD KARLA</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Valur</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stjarnan</t>
+          <t>Galway</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.62</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="J17" t="n">
-        <v>2.07</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.62</v>
+        <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8</v>
+      </c>
+      <c r="X17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK17" t="n">
         <v>21</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T17" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="W17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF17" t="n">
+      <c r="AL17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM17" t="n">
         <v>29</v>
       </c>
-      <c r="AG17" t="n">
-        <v>120</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>25</v>
-      </c>
       <c r="AN17" t="n">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="AO17" t="n">
-        <v>7.8</v>
+        <v>17</v>
       </c>
       <c r="AP17" t="n">
-        <v>11.75</v>
+        <v>26</v>
       </c>
       <c r="AQ17" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="AR17" t="n">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="AS17" t="n">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="AT17" t="n">
-        <v>4.05</v>
+        <v>2.63</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="AX17" t="n">
-        <v>7</v>
+        <v>4.33</v>
       </c>
       <c r="AY17" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AZ17" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="BA17" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="BB17" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BC17" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BD17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GML5U8YJ</t>
+          <t>6VpzjMa4</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,85 +3650,85 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Galway</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I18" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L18" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="R18" t="n">
-        <v>1.73</v>
+        <v>2.03</v>
       </c>
       <c r="S18" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.95</v>
       </c>
-      <c r="V18" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X18" t="n">
         <v>8</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
         <v>12</v>
       </c>
-      <c r="Y18" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>29</v>
-      </c>
       <c r="AA18" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AB18" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3737,46 +3737,46 @@
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AL18" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AP18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>26</v>
       </c>
-      <c r="AQ18" t="n">
-        <v>51</v>
-      </c>
       <c r="AR18" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS18" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -3788,19 +3788,19 @@
         <v>81</v>
       </c>
       <c r="AX18" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="AY18" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="BA18" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB18" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC18" t="n">
         <v>201</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6VpzjMa4</t>
+          <t>YVFNNmpe</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,179 +3822,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.67</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="J19" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L19" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N19" t="n">
+        <v>21</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3</v>
+      </c>
+      <c r="W19" t="n">
+        <v>17</v>
+      </c>
+      <c r="X19" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AX19" t="n">
         <v>5</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N19" t="n">
-        <v>13</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X19" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE19" t="n">
+      <c r="AY19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>15</v>
       </c>
-      <c r="AF19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
+      <c r="BA19" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC19" t="n">
         <v>81</v>
       </c>
-      <c r="AX19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>201</v>
-      </c>
       <c r="BD19" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>YVFNNmpe</t>
+          <t>Uc9WLRE7</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4014,151 +4014,151 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H20" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="L20" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
+        <v>15</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W20" t="n">
+        <v>15</v>
+      </c>
+      <c r="X20" t="n">
         <v>21</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T20" t="n">
-        <v>4</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V20" t="n">
-        <v>3</v>
-      </c>
-      <c r="W20" t="n">
-        <v>17</v>
-      </c>
-      <c r="X20" t="n">
+      <c r="Y20" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK20" t="n">
         <v>19</v>
       </c>
-      <c r="Y20" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH20" t="n">
+      <c r="AL20" t="n">
         <v>15</v>
       </c>
-      <c r="AI20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>17</v>
-      </c>
       <c r="AM20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN20" t="n">
         <v>5.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>17</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>201</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>15</v>
       </c>
       <c r="BA20" t="n">
         <v>34</v>
@@ -4167,7 +4167,7 @@
         <v>41</v>
       </c>
       <c r="BC20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Uc9WLRE7</t>
+          <t>f7w9Jvxr</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,170 +4186,170 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>NORWAY - ELITESERIEN</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>KFUM Oslo</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H21" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L21" t="n">
         <v>2.6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="R21" t="n">
-        <v>2.3</v>
+        <v>2.03</v>
       </c>
       <c r="S21" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T21" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U21" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="V21" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="W21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X21" t="n">
         <v>21</v>
       </c>
       <c r="Y21" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC21" t="n">
         <v>12</v>
       </c>
-      <c r="Z21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC21" t="n">
+      <c r="AD21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK21" t="n">
         <v>17</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>19</v>
       </c>
       <c r="AL21" t="n">
         <v>15</v>
       </c>
       <c r="AM21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN21" t="n">
         <v>5.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
         <v>51</v>
       </c>
       <c r="AR21" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AU21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AX21" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA21" t="n">
         <v>34</v>
       </c>
       <c r="BB21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD21" t="n">
         <v>151</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>f7w9Jvxr</t>
+          <t>QoSgxmft</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,179 +4368,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>KFUM Oslo</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Sol de America</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.75</v>
+        <v>1.9</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K22" t="n">
         <v>2</v>
       </c>
-      <c r="J22" t="n">
-        <v>4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L22" t="n">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.83</v>
+        <v>2.35</v>
       </c>
       <c r="R22" t="n">
-        <v>2.03</v>
+        <v>1.57</v>
       </c>
       <c r="S22" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="T22" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.67</v>
       </c>
-      <c r="V22" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W22" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="X22" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="Y22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z22" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AA22" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AB22" t="n">
         <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="AD22" t="n">
         <v>6.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG22" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AH22" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AK22" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AL22" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AM22" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO22" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AP22" t="n">
         <v>26</v>
       </c>
       <c r="AQ22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA22" t="n">
         <v>81</v>
       </c>
-      <c r="AS22" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>34</v>
-      </c>
       <c r="BB22" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BC22" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD22" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>QoSgxmft</t>
+          <t>n1G2zROh</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4560,37 +4560,37 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sol de America</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K23" t="n">
         <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O23" t="n">
         <v>1.4</v>
@@ -4599,10 +4599,10 @@
         <v>2.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R23" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
         <v>1.5</v>
@@ -4611,22 +4611,22 @@
         <v>2.5</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V23" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W23" t="n">
         <v>6</v>
       </c>
       <c r="X23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y23" t="n">
         <v>9</v>
       </c>
       <c r="Z23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA23" t="n">
         <v>19</v>
@@ -4641,19 +4641,19 @@
         <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="n">
         <v>67</v>
       </c>
       <c r="AG23" t="n">
-        <v>351</v>
+        <v>1250</v>
       </c>
       <c r="AH23" t="n">
         <v>9.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
         <v>15</v>
@@ -4662,19 +4662,19 @@
         <v>41</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM23" t="n">
         <v>41</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO23" t="n">
         <v>11</v>
       </c>
       <c r="AP23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ23" t="n">
         <v>41</v>
@@ -4698,7 +4698,7 @@
         <v>51</v>
       </c>
       <c r="AX23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY23" t="n">
         <v>23</v>
@@ -4713,7 +4713,7 @@
         <v>126</v>
       </c>
       <c r="BC23" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD23" t="n">
         <v>51</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>n1G2zROh</t>
+          <t>ln4XQ3Oj</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,179 +4732,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Alianza Atl.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Comerciantes Unidos</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.85</v>
+        <v>1.33</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="I24" t="n">
-        <v>4.1</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
-        <v>2.63</v>
+        <v>1.91</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="O24" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.35</v>
+        <v>1.88</v>
       </c>
       <c r="R24" t="n">
-        <v>1.57</v>
+        <v>1.98</v>
       </c>
       <c r="S24" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="T24" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U24" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W24" t="n">
         <v>6</v>
       </c>
       <c r="X24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y24" t="n">
         <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AB24" t="n">
         <v>34</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO24" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AP24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ24" t="n">
         <v>19</v>
       </c>
-      <c r="AF24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>41</v>
-      </c>
       <c r="AR24" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS24" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV24" t="n">
         <v>67</v>
       </c>
       <c r="AW24" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AX24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY24" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA24" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BB24" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC24" t="n">
         <v>351</v>
       </c>
       <c r="BD24" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ln4XQ3Oj</t>
+          <t>l28elbME</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4924,49 +4924,49 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Alianza Atl.</t>
+          <t>Cajamarca</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Comerciantes Unidos</t>
+          <t>Carlos Mannucci</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="H25" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K25" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="R25" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -4975,109 +4975,109 @@
         <v>3</v>
       </c>
       <c r="U25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.91</v>
       </c>
-      <c r="V25" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W25" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y25" t="n">
         <v>8.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA25" t="n">
         <v>13</v>
       </c>
       <c r="AB25" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH25" t="n">
         <v>15</v>
       </c>
       <c r="AI25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL25" t="n">
         <v>41</v>
       </c>
       <c r="AM25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP25" t="n">
         <v>19</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS25" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT25" t="n">
         <v>3</v>
       </c>
       <c r="AU25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV25" t="n">
         <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX25" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AY25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ25" t="n">
         <v>29</v>
       </c>
-      <c r="AZ25" t="n">
-        <v>41</v>
-      </c>
       <c r="BA25" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB25" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC25" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BD25" t="n">
         <v>151</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>l28elbME</t>
+          <t>SdN0SGae</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5106,31 +5106,31 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cajamarca</t>
+          <t>Sport Huancayo</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Carlos Mannucci</t>
+          <t>Los Chankas</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="H26" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="J26" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K26" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
@@ -5145,10 +5145,10 @@
         <v>3.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S26" t="n">
         <v>1.36</v>
@@ -5157,25 +5157,25 @@
         <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V26" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X26" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Y26" t="n">
         <v>8.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB26" t="n">
         <v>26</v>
@@ -5184,49 +5184,49 @@
         <v>11</v>
       </c>
       <c r="AD26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI26" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AK26" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AL26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM26" t="n">
         <v>41</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ26" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AR26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS26" t="n">
         <v>126</v>
@@ -5235,31 +5235,31 @@
         <v>3</v>
       </c>
       <c r="AU26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV26" t="n">
         <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX26" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AY26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ26" t="n">
         <v>29</v>
       </c>
-      <c r="AZ26" t="n">
-        <v>34</v>
-      </c>
       <c r="BA26" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB26" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BC26" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD26" t="n">
         <v>151</v>
@@ -5268,7 +5268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SdN0SGae</t>
+          <t>MF63nxiR</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5288,31 +5288,31 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sport Huancayo</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Los Chankas</t>
+          <t>Grau</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J27" t="n">
         <v>1.8</v>
       </c>
-      <c r="H27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>2.4</v>
       </c>
-      <c r="K27" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L27" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -5327,10 +5327,10 @@
         <v>3.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R27" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S27" t="n">
         <v>1.36</v>
@@ -5339,109 +5339,109 @@
         <v>3</v>
       </c>
       <c r="U27" t="n">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="V27" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="W27" t="n">
+        <v>6</v>
+      </c>
+      <c r="X27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z27" t="n">
         <v>7.5</v>
       </c>
-      <c r="X27" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>15</v>
-      </c>
       <c r="AA27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE27" t="n">
         <v>26</v>
       </c>
-      <c r="AC27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>15</v>
-      </c>
       <c r="AF27" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG27" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AK27" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AL27" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="AO27" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AP27" t="n">
         <v>21</v>
       </c>
       <c r="AQ27" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AR27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS27" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT27" t="n">
         <v>3</v>
       </c>
       <c r="AU27" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV27" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW27" t="n">
         <v>126</v>
       </c>
       <c r="AX27" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AY27" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ27" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BA27" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="BB27" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BC27" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BD27" t="n">
         <v>151</v>
@@ -5450,7 +5450,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MF63nxiR</t>
+          <t>YyyaU5PO</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,179 +5460,179 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Grau</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.42</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
-        <v>4.1</v>
+        <v>6.5</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>1.25</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="K28" t="n">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L28" t="n">
-        <v>7</v>
+        <v>1.67</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="O28" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S28" t="n">
         <v>1.25</v>
       </c>
-      <c r="P28" t="n">
+      <c r="T28" t="n">
         <v>3.75</v>
       </c>
-      <c r="Q28" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T28" t="n">
-        <v>3</v>
-      </c>
       <c r="U28" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V28" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W28" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="X28" t="n">
-        <v>6.5</v>
+        <v>51</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.5</v>
+        <v>26</v>
       </c>
       <c r="Z28" t="n">
-        <v>9.5</v>
+        <v>126</v>
       </c>
       <c r="AA28" t="n">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="AB28" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AC28" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AD28" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AF28" t="n">
         <v>67</v>
       </c>
       <c r="AG28" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>251</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS28" t="n">
         <v>351</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AT28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ28" t="n">
         <v>17</v>
       </c>
-      <c r="AI28" t="n">
+      <c r="BA28" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB28" t="n">
         <v>34</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>151</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>151</v>
-      </c>
       <c r="BC28" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BD28" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>YyyaU5PO</t>
+          <t>rudm3Dz1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,179 +5642,179 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Poli Iasi</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W29" t="n">
+        <v>6</v>
+      </c>
+      <c r="X29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH29" t="n">
         <v>10</v>
       </c>
-      <c r="H29" t="n">
-        <v>6</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J29" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N29" t="n">
-        <v>17</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T29" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W29" t="n">
+      <c r="AI29" t="n">
         <v>21</v>
       </c>
-      <c r="X29" t="n">
-        <v>51</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>151</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>81</v>
-      </c>
-      <c r="AB29" t="n">
+      <c r="AJ29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR29" t="n">
         <v>67</v>
       </c>
-      <c r="AC29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>251</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>251</v>
-      </c>
       <c r="AS29" t="n">
-        <v>451</v>
+        <v>201</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU29" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV29" t="n">
         <v>67</v>
       </c>
       <c r="AW29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB29" t="n">
         <v>126</v>
       </c>
-      <c r="AX29" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>15</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>41</v>
-      </c>
       <c r="BC29" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BD29" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>rudm3Dz1</t>
+          <t>UDD0CHDE</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5834,85 +5834,85 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N30" t="n">
+        <v>10</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U30" t="n">
         <v>1.91</v>
       </c>
-      <c r="H30" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L30" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N30" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2</v>
-      </c>
       <c r="V30" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W30" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X30" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC30" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y30" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE30" t="n">
         <v>17</v>
@@ -5921,46 +5921,46 @@
         <v>51</v>
       </c>
       <c r="AG30" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS30" t="n">
         <v>251</v>
       </c>
-      <c r="AH30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>201</v>
-      </c>
       <c r="AT30" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU30" t="n">
         <v>8.5</v>
@@ -5972,22 +5972,22 @@
         <v>51</v>
       </c>
       <c r="AX30" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="AY30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ30" t="n">
         <v>23</v>
       </c>
-      <c r="AZ30" t="n">
+      <c r="BA30" t="n">
         <v>34</v>
       </c>
-      <c r="BA30" t="n">
-        <v>81</v>
-      </c>
       <c r="BB30" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BC30" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BD30" t="n">
         <v>51</v>
@@ -5996,7 +5996,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UDD0CHDE</t>
+          <t>lUpib6nJ</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,170 +6006,170 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Tekstilac Odzaci</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.75</v>
+        <v>1.28</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="I31" t="n">
-        <v>1.73</v>
+        <v>9.5</v>
       </c>
       <c r="J31" t="n">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="K31" t="n">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="L31" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N31" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R31" t="n">
         <v>2.4</v>
       </c>
-      <c r="M31" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N31" t="n">
+      <c r="S31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W31" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X31" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>37</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU31" t="n">
         <v>8.5</v>
       </c>
-      <c r="O31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W31" t="n">
-        <v>12</v>
-      </c>
-      <c r="X31" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>9</v>
-      </c>
       <c r="AV31" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AW31" t="n">
         <v>51</v>
       </c>
       <c r="AX31" t="n">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="AY31" t="n">
-        <v>9.5</v>
+        <v>55</v>
       </c>
       <c r="AZ31" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="BA31" t="n">
-        <v>34</v>
+        <v>400</v>
       </c>
       <c r="BB31" t="n">
-        <v>51</v>
+        <v>350</v>
       </c>
       <c r="BC31" t="n">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="BD31" t="n">
         <v>51</v>
@@ -6178,7 +6178,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>lUpib6nJ</t>
+          <t>08E9Gm2m</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6198,160 +6198,160 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>Crvena zvezda</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.3</v>
+        <v>6.8</v>
       </c>
       <c r="H32" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>9.25</v>
+        <v>1.52</v>
       </c>
       <c r="J32" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q32" t="n">
         <v>1.75</v>
       </c>
-      <c r="K32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L32" t="n">
+      <c r="R32" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W32" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>175</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI32" t="n">
         <v>7.4</v>
       </c>
-      <c r="M32" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N32" t="n">
-        <v>9</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T32" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="W32" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="X32" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z32" t="n">
+      <c r="AJ32" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN32" t="n">
         <v>8.25</v>
       </c>
-      <c r="AA32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK32" t="n">
+      <c r="AO32" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ32" t="n">
         <v>250</v>
       </c>
-      <c r="AL32" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AP32" t="n">
+      <c r="AR32" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ32" t="n">
         <v>15</v>
       </c>
-      <c r="AQ32" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>50</v>
-      </c>
-      <c r="AZ32" t="n">
+      <c r="BA32" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB32" t="n">
         <v>45</v>
       </c>
-      <c r="BA32" t="n">
-        <v>400</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>350</v>
-      </c>
       <c r="BC32" t="n">
-        <v>500</v>
+        <v>175</v>
       </c>
       <c r="BD32" t="n">
         <v>51</v>
@@ -6360,7 +6360,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>08E9Gm2m</t>
+          <t>8Ia7s2mS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6370,179 +6370,179 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Crvena zvezda</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>6.5</v>
+        <v>2.38</v>
       </c>
       <c r="H33" t="n">
-        <v>3.85</v>
+        <v>2.8</v>
       </c>
       <c r="I33" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
-        <v>2.27</v>
+        <v>1.83</v>
       </c>
       <c r="L33" t="n">
-        <v>1.98</v>
+        <v>4.33</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="N33" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="P33" t="n">
-        <v>3.85</v>
+        <v>2.2</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="R33" t="n">
-        <v>2.12</v>
+        <v>1.36</v>
       </c>
       <c r="S33" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="T33" t="n">
-        <v>3.05</v>
+        <v>2.1</v>
       </c>
       <c r="U33" t="n">
-        <v>1.72</v>
+        <v>2.38</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="W33" t="n">
-        <v>18.5</v>
+        <v>5.5</v>
       </c>
       <c r="X33" t="n">
-        <v>45</v>
+        <v>9.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Z33" t="n">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="AA33" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AB33" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AC33" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AD33" t="n">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF33" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AG33" t="n">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="AH33" t="n">
         <v>7.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>7.7</v>
+        <v>15</v>
       </c>
       <c r="AJ33" t="n">
-        <v>7.8</v>
+        <v>15</v>
       </c>
       <c r="AK33" t="n">
-        <v>11.25</v>
+        <v>41</v>
       </c>
       <c r="AL33" t="n">
-        <v>11.25</v>
+        <v>41</v>
       </c>
       <c r="AM33" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="AN33" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AO33" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="AP33" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AQ33" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="AR33" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AS33" t="n">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="AT33" t="n">
-        <v>3.05</v>
+        <v>2.1</v>
       </c>
       <c r="AU33" t="n">
-        <v>7.1</v>
+        <v>10</v>
       </c>
       <c r="AV33" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AW33" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX33" t="n">
-        <v>3.45</v>
+        <v>5</v>
       </c>
       <c r="AY33" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AZ33" t="n">
-        <v>14.5</v>
+        <v>41</v>
       </c>
       <c r="BA33" t="n">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="BB33" t="n">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="BC33" t="n">
-        <v>175</v>
+        <v>351</v>
       </c>
       <c r="BD33" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8Ia7s2mS</t>
+          <t>EgsO1Wve</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6552,179 +6552,179 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="I34" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="K34" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="L34" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="M34" t="n">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O34" t="n">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="P34" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.88</v>
+        <v>1.75</v>
       </c>
       <c r="R34" t="n">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="S34" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="T34" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="U34" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="V34" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="W34" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="X34" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z34" t="n">
         <v>10</v>
       </c>
-      <c r="Y34" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>23</v>
-      </c>
       <c r="AA34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB34" t="n">
         <v>26</v>
       </c>
-      <c r="AB34" t="n">
-        <v>41</v>
-      </c>
       <c r="AC34" t="n">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="AD34" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AE34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ34" t="n">
         <v>21</v>
       </c>
-      <c r="AF34" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK34" t="n">
+      <c r="AR34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>151</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY34" t="n">
         <v>34</v>
       </c>
-      <c r="AL34" t="n">
+      <c r="AZ34" t="n">
         <v>34</v>
       </c>
-      <c r="AM34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>41</v>
-      </c>
       <c r="BA34" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB34" t="n">
         <v>126</v>
       </c>
       <c r="BC34" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BD34" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EgsO1Wve</t>
+          <t>lpTGZYaD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6739,174 +6739,174 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Oddevold</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Orebro</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="I35" t="n">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="J35" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L35" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
+        <v>11</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI35" t="n">
         <v>15</v>
       </c>
-      <c r="O35" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T35" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W35" t="n">
-        <v>8</v>
-      </c>
-      <c r="X35" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z35" t="n">
+      <c r="AJ35" t="n">
         <v>11</v>
       </c>
-      <c r="AA35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB35" t="n">
+      <c r="AK35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL35" t="n">
         <v>23</v>
       </c>
-      <c r="AC35" t="n">
+      <c r="AM35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO35" t="n">
         <v>13</v>
       </c>
-      <c r="AD35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE35" t="n">
+      <c r="AP35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY35" t="n">
         <v>17</v>
       </c>
-      <c r="AF35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ35" t="n">
+      <c r="AZ35" t="n">
         <v>23</v>
       </c>
-      <c r="AR35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW35" t="n">
+      <c r="BA35" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC35" t="n">
         <v>151</v>
       </c>
-      <c r="AX35" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>201</v>
-      </c>
       <c r="BD35" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>lpTGZYaD</t>
+          <t>AgUCzFp7</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6926,67 +6926,67 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Oddevold</t>
+          <t>Sandviken</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Orebro</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K36" t="n">
         <v>2.3</v>
       </c>
-      <c r="H36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L36" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O36" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="P36" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="R36" t="n">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="S36" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T36" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U36" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="V36" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="W36" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y36" t="n">
         <v>9.5</v>
@@ -6995,28 +6995,28 @@
         <v>23</v>
       </c>
       <c r="AA36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH36" t="n">
         <v>11</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>9.5</v>
       </c>
       <c r="AI36" t="n">
         <v>15</v>
@@ -7028,19 +7028,19 @@
         <v>29</v>
       </c>
       <c r="AL36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN36" t="n">
         <v>4.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ36" t="n">
         <v>41</v>
@@ -7049,46 +7049,46 @@
         <v>51</v>
       </c>
       <c r="AS36" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV36" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW36" t="n">
-        <v>126</v>
+        <v>401</v>
       </c>
       <c r="AX36" t="n">
         <v>5</v>
       </c>
       <c r="AY36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA36" t="n">
         <v>51</v>
       </c>
       <c r="BB36" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC36" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD36" t="n">
         <v>151</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AgUCzFp7</t>
+          <t>SUv8yeV0</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7108,154 +7108,154 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sandviken</t>
+          <t>Sundsvall</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Oster</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.25</v>
+        <v>3.7</v>
       </c>
       <c r="H37" t="n">
         <v>3.5</v>
       </c>
       <c r="I37" t="n">
-        <v>2.75</v>
+        <v>1.9</v>
       </c>
       <c r="J37" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="K37" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L37" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O37" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P37" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="R37" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="S37" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T37" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U37" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="V37" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="W37" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X37" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y37" t="n">
         <v>13</v>
       </c>
-      <c r="Y37" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z37" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AA37" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AB37" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AC37" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD37" t="n">
         <v>7</v>
       </c>
       <c r="AE37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF37" t="n">
         <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH37" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AI37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL37" t="n">
         <v>15</v>
       </c>
-      <c r="AJ37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL37" t="n">
+      <c r="AM37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO37" t="n">
         <v>21</v>
       </c>
-      <c r="AM37" t="n">
+      <c r="AP37" t="n">
         <v>26</v>
       </c>
-      <c r="AN37" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP37" t="n">
+      <c r="AQ37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ37" t="n">
         <v>19</v>
       </c>
-      <c r="AQ37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>401</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>21</v>
-      </c>
       <c r="BA37" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BB37" t="n">
         <v>51</v>
@@ -7264,13 +7264,13 @@
         <v>126</v>
       </c>
       <c r="BD37" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SUv8yeV0</t>
+          <t>WzLdLiig</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7280,179 +7280,179 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sundsvall</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Oster</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.2</v>
+        <v>2.95</v>
       </c>
       <c r="H38" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>1.73</v>
+        <v>2.27</v>
       </c>
       <c r="J38" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="K38" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L38" t="n">
-        <v>2.38</v>
+        <v>2.85</v>
       </c>
       <c r="M38" t="n">
         <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>13</v>
+        <v>8.25</v>
       </c>
       <c r="O38" t="n">
         <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="R38" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S38" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T38" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U38" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="V38" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="W38" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X38" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>15</v>
+        <v>10.25</v>
       </c>
       <c r="Z38" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA38" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AB38" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AC38" t="n">
-        <v>13</v>
+        <v>8.25</v>
       </c>
       <c r="AD38" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE38" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AF38" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG38" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AH38" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="AJ38" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK38" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AL38" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AM38" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN38" t="n">
-        <v>6.5</v>
+        <v>5.1</v>
       </c>
       <c r="AO38" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="AQ38" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR38" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AS38" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="AT38" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU38" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="AV38" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AW38" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AX38" t="n">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="AY38" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ38" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="BA38" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="BB38" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="BC38" t="n">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="BD38" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>WzLdLiig</t>
+          <t>ALWmNDMt</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7472,88 +7472,88 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.9</v>
+        <v>1.83</v>
       </c>
       <c r="H39" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I39" t="n">
-        <v>2.27</v>
+        <v>3.8</v>
       </c>
       <c r="J39" t="n">
-        <v>3.4</v>
+        <v>2.32</v>
       </c>
       <c r="K39" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="L39" t="n">
-        <v>2.77</v>
+        <v>4.1</v>
       </c>
       <c r="M39" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
+        <v>9</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W39" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X39" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y39" t="n">
         <v>8.25</v>
       </c>
-      <c r="O39" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R39" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T39" t="n">
-        <v>3</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V39" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="W39" t="n">
-        <v>11</v>
-      </c>
-      <c r="X39" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>10.25</v>
-      </c>
       <c r="Z39" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="AA39" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AD39" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF39" t="n">
         <v>40</v>
@@ -7562,43 +7562,43 @@
         <v>250</v>
       </c>
       <c r="AH39" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AJ39" t="n">
-        <v>8.75</v>
+        <v>12.5</v>
       </c>
       <c r="AK39" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AL39" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="AM39" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AN39" t="n">
-        <v>5.1</v>
+        <v>4.05</v>
       </c>
       <c r="AO39" t="n">
-        <v>15.5</v>
+        <v>9</v>
       </c>
       <c r="AP39" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AR39" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AS39" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="AT39" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AU39" t="n">
         <v>6.5</v>
@@ -7610,22 +7610,22 @@
         <v>51</v>
       </c>
       <c r="AX39" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="AY39" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AZ39" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="BA39" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="BB39" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="BC39" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="BD39" t="n">
         <v>51</v>
@@ -7634,7 +7634,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ALWmNDMt</t>
+          <t>v1O4JVL5</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7644,7 +7644,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -7654,124 +7654,124 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.82</v>
+        <v>2.07</v>
       </c>
       <c r="H40" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="I40" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="J40" t="n">
-        <v>2.35</v>
+        <v>2.57</v>
       </c>
       <c r="K40" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="M40" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P40" t="n">
-        <v>4.3</v>
+        <v>4.05</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="R40" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="S40" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="T40" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="U40" t="n">
         <v>1.52</v>
       </c>
       <c r="V40" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="W40" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="X40" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AA40" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AE40" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AF40" t="n">
         <v>40</v>
       </c>
       <c r="AG40" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AH40" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AI40" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL40" t="n">
         <v>26</v>
       </c>
-      <c r="AJ40" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>29</v>
-      </c>
       <c r="AM40" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN40" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="AO40" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AP40" t="n">
         <v>15</v>
       </c>
       <c r="AQ40" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AR40" t="n">
         <v>50</v>
@@ -7780,28 +7780,28 @@
         <v>150</v>
       </c>
       <c r="AT40" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AU40" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV40" t="n">
         <v>45</v>
       </c>
       <c r="AW40" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="AX40" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY40" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AZ40" t="n">
         <v>21</v>
       </c>
       <c r="BA40" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB40" t="n">
         <v>100</v>
@@ -7816,7 +7816,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>v1O4JVL5</t>
+          <t>SKBghoFU</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -7826,179 +7826,179 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I41" t="n">
         <v>2.25</v>
       </c>
-      <c r="H41" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.87</v>
-      </c>
       <c r="J41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N41" t="n">
+        <v>11</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T41" t="n">
         <v>2.75</v>
       </c>
-      <c r="K41" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N41" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T41" t="n">
-        <v>3.15</v>
-      </c>
       <c r="U41" t="n">
-        <v>1.47</v>
+        <v>1.73</v>
       </c>
       <c r="V41" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W41" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="X41" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y41" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z41" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AA41" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AB41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL41" t="n">
         <v>19</v>
       </c>
-      <c r="AC41" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH41" t="n">
+      <c r="AM41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY41" t="n">
         <v>12</v>
       </c>
-      <c r="AI41" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AZ41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA41" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="BB41" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="BC41" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="BD41" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SKBghoFU</t>
+          <t>6os4Cl0n</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8018,55 +8018,55 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H42" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I42" t="n">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="J42" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N42" t="n">
+        <v>12</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P42" t="n">
         <v>3.75</v>
       </c>
-      <c r="K42" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N42" t="n">
-        <v>11</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q42" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R42" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="S42" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T42" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U42" t="n">
         <v>1.73</v>
@@ -8075,31 +8075,31 @@
         <v>2</v>
       </c>
       <c r="W42" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X42" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Y42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC42" t="n">
         <v>12</v>
       </c>
-      <c r="Z42" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>11</v>
-      </c>
       <c r="AD42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF42" t="n">
         <v>41</v>
@@ -8108,70 +8108,70 @@
         <v>201</v>
       </c>
       <c r="AH42" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AI42" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AJ42" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AK42" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AL42" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AM42" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN42" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AO42" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AQ42" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AR42" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS42" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV42" t="n">
         <v>51</v>
       </c>
       <c r="AW42" t="n">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="AX42" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AY42" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AZ42" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="BA42" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB42" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC42" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD42" t="n">
         <v>301</v>
@@ -8180,7 +8180,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6os4Cl0n</t>
+          <t>vy3pB0SG</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8195,60 +8195,60 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.73</v>
+        <v>2.63</v>
       </c>
       <c r="H43" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="J43" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="K43" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L43" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M43" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O43" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R43" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S43" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T43" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U43" t="n">
         <v>1.73</v>
@@ -8257,31 +8257,31 @@
         <v>2</v>
       </c>
       <c r="W43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X43" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z43" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE43" t="n">
         <v>13</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>15</v>
       </c>
       <c r="AF43" t="n">
         <v>41</v>
@@ -8290,43 +8290,43 @@
         <v>201</v>
       </c>
       <c r="AH43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO43" t="n">
         <v>15</v>
       </c>
-      <c r="AI43" t="n">
+      <c r="AP43" t="n">
         <v>23</v>
       </c>
-      <c r="AJ43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ43" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR43" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS43" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT43" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU43" t="n">
         <v>8</v>
@@ -8335,34 +8335,34 @@
         <v>51</v>
       </c>
       <c r="AW43" t="n">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="AX43" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ43" t="n">
         <v>23</v>
       </c>
-      <c r="AZ43" t="n">
-        <v>29</v>
-      </c>
       <c r="BA43" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB43" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BC43" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD43" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>vy3pB0SG</t>
+          <t>2odcc7iR</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8372,179 +8372,179 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>FK Zorya Luhansk</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="H44" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N44" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P44" t="n">
         <v>2.5</v>
       </c>
-      <c r="J44" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N44" t="n">
-        <v>11</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q44" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="R44" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="S44" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="T44" t="n">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="U44" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="V44" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="W44" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X44" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="Z44" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AA44" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AB44" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AC44" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="AD44" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AE44" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AF44" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AG44" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AH44" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="AJ44" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AK44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL44" t="n">
         <v>21</v>
       </c>
       <c r="AM44" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AN44" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO44" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AQ44" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="AR44" t="n">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="AS44" t="n">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.75</v>
+        <v>2.32</v>
       </c>
       <c r="AU44" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AV44" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AW44" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AX44" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AY44" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ44" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA44" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="BB44" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="BC44" t="n">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="BD44" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2odcc7iR</t>
+          <t>hW2UkPq1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -8554,7 +8554,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -8564,344 +8564,162 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>FK Zorya Luhansk</t>
+          <t>Obolon</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.25</v>
+        <v>1.14</v>
       </c>
       <c r="H45" t="n">
-        <v>2.92</v>
+        <v>6.4</v>
       </c>
       <c r="I45" t="n">
-        <v>2.27</v>
+        <v>18</v>
       </c>
       <c r="J45" t="n">
-        <v>3.9</v>
+        <v>1.45</v>
       </c>
       <c r="K45" t="n">
-        <v>1.93</v>
+        <v>2.82</v>
       </c>
       <c r="L45" t="n">
-        <v>2.9</v>
+        <v>13</v>
       </c>
       <c r="M45" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>7.4</v>
+        <v>21</v>
       </c>
       <c r="O45" t="n">
-        <v>1.45</v>
+        <v>1.12</v>
       </c>
       <c r="P45" t="n">
-        <v>2.37</v>
+        <v>5.55</v>
       </c>
       <c r="Q45" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T45" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="U45" t="n">
         <v>2.32</v>
       </c>
-      <c r="R45" t="n">
+      <c r="V45" t="n">
         <v>1.47</v>
       </c>
-      <c r="S45" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T45" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.65</v>
-      </c>
       <c r="W45" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="X45" t="n">
-        <v>15</v>
+        <v>5.8</v>
       </c>
       <c r="Y45" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="Z45" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="AA45" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB45" t="n">
         <v>37</v>
       </c>
-      <c r="AB45" t="n">
-        <v>50</v>
-      </c>
       <c r="AC45" t="n">
-        <v>6.7</v>
+        <v>16.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>5.8</v>
+        <v>15.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="AF45" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="AG45" t="n">
         <v>67</v>
       </c>
       <c r="AH45" t="n">
-        <v>6.3</v>
+        <v>60</v>
       </c>
       <c r="AI45" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="AJ45" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>900</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>400</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ45" t="n">
         <v>9.25</v>
       </c>
-      <c r="AK45" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>110</v>
-      </c>
       <c r="AR45" t="n">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="AS45" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.25</v>
+        <v>3.65</v>
       </c>
       <c r="AU45" t="n">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="AV45" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AW45" t="n">
         <v>81</v>
       </c>
       <c r="AX45" t="n">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="AY45" t="n">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="AZ45" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="BA45" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="BB45" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="BC45" t="n">
-        <v>350</v>
+        <v>67</v>
       </c>
       <c r="BD45" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>hW2UkPq1</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>23/09/2024</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Shakhtar Donetsk</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Obolon</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H46" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="I46" t="n">
-        <v>17</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="L46" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N46" t="n">
-        <v>21</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R46" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="T46" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="U46" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="V46" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W46" t="n">
-        <v>8</v>
-      </c>
-      <c r="X46" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>37</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>175</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>900</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>350</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>35</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>110</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>80</v>
-      </c>
-      <c r="BA46" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB46" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC46" t="n">
-        <v>67</v>
-      </c>
-      <c r="BD46" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-09-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-23.xlsx
@@ -816,7 +816,7 @@
         <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -947,10 +947,10 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -959,10 +959,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.53</v>
@@ -1111,19 +1111,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I4" t="n">
         <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L4" t="n">
         <v>4.33</v>
@@ -1135,28 +1135,28 @@
         <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1165,25 +1165,25 @@
         <v>10</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>101</v>
@@ -1204,7 +1204,7 @@
         <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
@@ -1213,7 +1213,7 @@
         <v>4.33</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
         <v>34</v>
@@ -1222,19 +1222,19 @@
         <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS4" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU4" t="n">
         <v>10</v>
       </c>
       <c r="AV4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW4" t="n">
         <v>126</v>
@@ -1252,10 +1252,10 @@
         <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD4" t="n">
         <v>126</v>
@@ -1296,7 +1296,7 @@
         <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
         <v>4.75</v>
@@ -1311,16 +1311,16 @@
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q5" t="n">
         <v>2.7</v>
@@ -1374,7 +1374,7 @@
         <v>501</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1431,7 +1431,7 @@
         <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
         <v>151</v>
@@ -1678,7 +1678,7 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J8" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -1857,22 +1857,22 @@
         <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
         <v>1.53</v>
@@ -1890,13 +1890,13 @@
         <v>5</v>
       </c>
       <c r="X8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
@@ -1923,10 +1923,10 @@
         <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="n">
         <v>67</v>
@@ -1947,7 +1947,7 @@
         <v>26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
         <v>67</v>
@@ -1968,10 +1968,10 @@
         <v>81</v>
       </c>
       <c r="AX8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
         <v>41</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
         <v>2.7</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
         <v>1.83</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.14</v>
@@ -2057,7 +2057,7 @@
         <v>1.36</v>
       </c>
       <c r="S9" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T9" t="n">
         <v>2.1</v>
@@ -2072,16 +2072,16 @@
         <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB9" t="n">
         <v>51</v>
@@ -2093,7 +2093,7 @@
         <v>5.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
         <v>81</v>
@@ -2102,10 +2102,10 @@
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
         <v>12</v>
@@ -2117,10 +2117,10 @@
         <v>29</v>
       </c>
       <c r="AM9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
         <v>19</v>
@@ -2132,7 +2132,7 @@
         <v>67</v>
       </c>
       <c r="AR9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS9" t="n">
         <v>351</v>
@@ -2159,7 +2159,7 @@
         <v>34</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
         <v>101</v>
@@ -2239,7 +2239,7 @@
         <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
         <v>2.5</v>
@@ -2421,7 +2421,7 @@
         <v>1.65</v>
       </c>
       <c r="S11" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T11" t="n">
         <v>2.5</v>
@@ -2567,58 +2567,58 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P12" t="n">
         <v>3</v>
       </c>
-      <c r="I12" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="Q12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.91</v>
       </c>
-      <c r="L12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V12" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
         <v>12</v>
@@ -2627,70 +2627,70 @@
         <v>34</v>
       </c>
       <c r="AA12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
         <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AH12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>10</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>11</v>
       </c>
       <c r="AK12" t="n">
         <v>23</v>
       </c>
       <c r="AL12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN12" t="n">
         <v>5</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV12" t="n">
         <v>67</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>81</v>
       </c>
       <c r="AW12" t="n">
         <v>126</v>
@@ -2699,19 +2699,19 @@
         <v>4.33</v>
       </c>
       <c r="AY12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA12" t="n">
         <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC12" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BD12" t="n">
         <v>126</v>
@@ -2797,10 +2797,10 @@
         <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
@@ -2949,10 +2949,10 @@
         <v>7.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
         <v>1.25</v>
@@ -3116,7 +3116,7 @@
         <v>1.5</v>
       </c>
       <c r="H15" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="I15" t="n">
         <v>5</v>
@@ -3125,10 +3125,10 @@
         <v>1.9</v>
       </c>
       <c r="K15" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="L15" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
@@ -3149,40 +3149,40 @@
         <v>3.2</v>
       </c>
       <c r="S15" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="T15" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="U15" t="n">
         <v>1.4</v>
       </c>
       <c r="V15" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="W15" t="n">
         <v>14.5</v>
       </c>
       <c r="X15" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
       </c>
       <c r="Z15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA15" t="n">
         <v>10.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD15" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
@@ -3194,7 +3194,7 @@
         <v>150</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI15" t="n">
         <v>45</v>
@@ -3230,10 +3230,10 @@
         <v>80</v>
       </c>
       <c r="AT15" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AU15" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV15" t="n">
         <v>32</v>
@@ -3248,13 +3248,13 @@
         <v>24</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB15" t="n">
         <v>100</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>90</v>
       </c>
       <c r="BC15" t="n">
         <v>150</v>
@@ -3295,10 +3295,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I16" t="n">
         <v>4.2</v>
@@ -3310,7 +3310,7 @@
         <v>2.62</v>
       </c>
       <c r="L16" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
@@ -3346,7 +3346,7 @@
         <v>14.5</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y16" t="n">
         <v>9</v>
@@ -3364,13 +3364,13 @@
         <v>29</v>
       </c>
       <c r="AD16" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG16" t="n">
         <v>120</v>
@@ -3385,10 +3385,10 @@
         <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM16" t="n">
         <v>25</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -3501,16 +3501,16 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -3519,28 +3519,28 @@
         <v>2.63</v>
       </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V17" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
         <v>11</v>
       </c>
       <c r="Z17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA17" t="n">
         <v>29</v>
       </c>
-      <c r="AA17" t="n">
-        <v>23</v>
-      </c>
       <c r="AB17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC17" t="n">
         <v>9.5</v>
@@ -3555,37 +3555,37 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="n">
         <v>29</v>
       </c>
       <c r="AN17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR17" t="n">
         <v>81</v>
@@ -3606,10 +3606,10 @@
         <v>81</v>
       </c>
       <c r="AX17" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ17" t="n">
         <v>23</v>
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H18" t="n">
         <v>3.75</v>
@@ -3707,10 +3707,10 @@
         <v>1.95</v>
       </c>
       <c r="W18" t="n">
+        <v>7</v>
+      </c>
+      <c r="X18" t="n">
         <v>7.5</v>
-      </c>
-      <c r="X18" t="n">
-        <v>8</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
@@ -3779,7 +3779,7 @@
         <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
@@ -4226,19 +4226,19 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R21" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
         <v>1.36</v>
@@ -4313,7 +4313,7 @@
         <v>26</v>
       </c>
       <c r="AQ21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR21" t="n">
         <v>81</v>
@@ -4337,7 +4337,7 @@
         <v>4</v>
       </c>
       <c r="AY21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ21" t="n">
         <v>19</v>
@@ -4599,10 +4599,10 @@
         <v>2.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R23" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S23" t="n">
         <v>1.5</v>
@@ -4933,16 +4933,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H25" t="n">
         <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J25" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K25" t="n">
         <v>2.3</v>
@@ -4951,10 +4951,10 @@
         <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O25" t="n">
         <v>1.25</v>
@@ -4963,10 +4963,10 @@
         <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R25" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -4984,7 +4984,7 @@
         <v>7.5</v>
       </c>
       <c r="X25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y25" t="n">
         <v>8.5</v>
@@ -5020,7 +5020,7 @@
         <v>26</v>
       </c>
       <c r="AJ25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK25" t="n">
         <v>51</v>
@@ -5041,10 +5041,10 @@
         <v>19</v>
       </c>
       <c r="AQ25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS25" t="n">
         <v>126</v>
@@ -5059,13 +5059,13 @@
         <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX25" t="n">
         <v>6.5</v>
       </c>
       <c r="AY25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ25" t="n">
         <v>29</v>
@@ -5139,16 +5139,16 @@
         <v>11</v>
       </c>
       <c r="O26" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R26" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S26" t="n">
         <v>1.36</v>
@@ -5479,7 +5479,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="H28" t="n">
         <v>6.5</v>
@@ -5488,7 +5488,7 @@
         <v>1.25</v>
       </c>
       <c r="J28" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="K28" t="n">
         <v>2.75</v>
@@ -5503,16 +5503,16 @@
         <v>19</v>
       </c>
       <c r="O28" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="R28" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S28" t="n">
         <v>1.25</v>
@@ -5521,13 +5521,13 @@
         <v>3.75</v>
       </c>
       <c r="U28" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V28" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="W28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X28" t="n">
         <v>51</v>
@@ -5545,37 +5545,37 @@
         <v>51</v>
       </c>
       <c r="AC28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD28" t="n">
         <v>12</v>
       </c>
       <c r="AE28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF28" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG28" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AH28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK28" t="n">
         <v>8</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>7.5</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
       </c>
       <c r="AM28" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AN28" t="n">
         <v>11</v>
@@ -5587,19 +5587,19 @@
         <v>41</v>
       </c>
       <c r="AQ28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS28" t="n">
         <v>251</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>351</v>
       </c>
       <c r="AT28" t="n">
         <v>3.75</v>
       </c>
       <c r="AU28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV28" t="n">
         <v>51</v>
@@ -5608,13 +5608,13 @@
         <v>126</v>
       </c>
       <c r="AX28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AY28" t="n">
         <v>5.5</v>
       </c>
       <c r="AZ28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA28" t="n">
         <v>13</v>
@@ -5623,7 +5623,7 @@
         <v>34</v>
       </c>
       <c r="BC28" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD28" t="n">
         <v>126</v>
@@ -5667,49 +5667,49 @@
         <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T29" t="n">
         <v>2.63</v>
       </c>
-      <c r="K29" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N29" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V29" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
         <v>8.5</v>
@@ -5724,25 +5724,25 @@
         <v>17</v>
       </c>
       <c r="AB29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD29" t="n">
         <v>6</v>
       </c>
       <c r="AE29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF29" t="n">
         <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
         <v>21</v>
@@ -5754,37 +5754,37 @@
         <v>41</v>
       </c>
       <c r="AL29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM29" t="n">
         <v>41</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO29" t="n">
         <v>11</v>
       </c>
       <c r="AP29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR29" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS29" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU29" t="n">
         <v>8.5</v>
       </c>
       <c r="AV29" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW29" t="n">
         <v>51</v>
@@ -5802,10 +5802,10 @@
         <v>81</v>
       </c>
       <c r="BB29" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC29" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD29" t="n">
         <v>51</v>
@@ -5843,13 +5843,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J30" t="n">
         <v>4.75</v>
@@ -5858,7 +5858,7 @@
         <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
@@ -5966,7 +5966,7 @@
         <v>8.5</v>
       </c>
       <c r="AV30" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW30" t="n">
         <v>51</v>
@@ -5978,7 +5978,7 @@
         <v>10</v>
       </c>
       <c r="AZ30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA30" t="n">
         <v>34</v>
@@ -6028,70 +6028,70 @@
         <v>1.28</v>
       </c>
       <c r="H31" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I31" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="J31" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="K31" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="L31" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P31" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R31" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S31" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="U31" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="V31" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="W31" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="X31" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA31" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB31" t="n">
         <v>25</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD31" t="n">
         <v>10.5</v>
@@ -6106,16 +6106,16 @@
         <v>600</v>
       </c>
       <c r="AH31" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="n">
         <v>29</v>
       </c>
       <c r="AK31" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL31" t="n">
         <v>110</v>
@@ -6124,7 +6124,7 @@
         <v>80</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AO31" t="n">
         <v>5.6</v>
@@ -6133,16 +6133,16 @@
         <v>15</v>
       </c>
       <c r="AQ31" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AR31" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AS31" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AU31" t="n">
         <v>8.5</v>
@@ -6207,97 +6207,97 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I32" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="J32" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="K32" t="n">
         <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P32" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R32" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S32" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T32" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="U32" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V32" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W32" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="X32" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB32" t="n">
         <v>50</v>
       </c>
-      <c r="Y32" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>175</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>55</v>
-      </c>
       <c r="AC32" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AD32" t="n">
         <v>7.2</v>
       </c>
       <c r="AE32" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG32" t="n">
         <v>400</v>
       </c>
       <c r="AH32" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AI32" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AJ32" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AK32" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AL32" t="n">
         <v>11.75</v>
@@ -6306,16 +6306,16 @@
         <v>22</v>
       </c>
       <c r="AN32" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AO32" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AP32" t="n">
         <v>32</v>
       </c>
       <c r="AQ32" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AR32" t="n">
         <v>200</v>
@@ -6324,7 +6324,7 @@
         <v>350</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU32" t="n">
         <v>6.9</v>
@@ -6336,16 +6336,16 @@
         <v>51</v>
       </c>
       <c r="AX32" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AY32" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AZ32" t="n">
         <v>15</v>
       </c>
       <c r="BA32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB32" t="n">
         <v>45</v>
@@ -6389,7 +6389,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H33" t="n">
         <v>2.8</v>
@@ -6398,7 +6398,7 @@
         <v>3.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K33" t="n">
         <v>1.83</v>
@@ -6407,34 +6407,34 @@
         <v>4.33</v>
       </c>
       <c r="M33" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S33" t="n">
         <v>1.62</v>
       </c>
-      <c r="P33" t="n">
+      <c r="T33" t="n">
         <v>2.2</v>
       </c>
-      <c r="Q33" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.1</v>
-      </c>
       <c r="U33" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V33" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W33" t="n">
         <v>5.5</v>
@@ -6446,19 +6446,19 @@
         <v>11</v>
       </c>
       <c r="Z33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA33" t="n">
         <v>23</v>
       </c>
-      <c r="AA33" t="n">
-        <v>26</v>
-      </c>
       <c r="AB33" t="n">
         <v>41</v>
       </c>
       <c r="AC33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE33" t="n">
         <v>21</v>
@@ -6506,10 +6506,10 @@
         <v>351</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AU33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV33" t="n">
         <v>81</v>
@@ -6571,22 +6571,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H34" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J34" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K34" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
@@ -6601,10 +6601,10 @@
         <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R34" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S34" t="n">
         <v>1.33</v>
@@ -6652,7 +6652,7 @@
         <v>301</v>
       </c>
       <c r="AH34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI34" t="n">
         <v>34</v>
@@ -6664,16 +6664,16 @@
         <v>67</v>
       </c>
       <c r="AL34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM34" t="n">
         <v>41</v>
       </c>
       <c r="AN34" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP34" t="n">
         <v>19</v>
@@ -6700,19 +6700,19 @@
         <v>151</v>
       </c>
       <c r="AX34" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY34" t="n">
         <v>34</v>
       </c>
       <c r="AZ34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA34" t="n">
         <v>126</v>
       </c>
       <c r="BB34" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC34" t="n">
         <v>251</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H35" t="n">
         <v>3.4</v>
       </c>
       <c r="I35" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K35" t="n">
         <v>2.2</v>
       </c>
       <c r="L35" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M35" t="n">
         <v>1.05</v>
@@ -6783,10 +6783,10 @@
         <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R35" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S35" t="n">
         <v>1.4</v>
@@ -6801,22 +6801,22 @@
         <v>2.05</v>
       </c>
       <c r="W35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z35" t="n">
         <v>23</v>
       </c>
       <c r="AA35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC35" t="n">
         <v>11</v>
@@ -6837,16 +6837,16 @@
         <v>9.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM35" t="n">
         <v>29</v>
@@ -6858,13 +6858,13 @@
         <v>13</v>
       </c>
       <c r="AP35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ35" t="n">
         <v>41</v>
       </c>
       <c r="AR35" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS35" t="n">
         <v>151</v>
@@ -6882,10 +6882,10 @@
         <v>126</v>
       </c>
       <c r="AX35" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ35" t="n">
         <v>23</v>
@@ -6938,7 +6938,7 @@
         <v>2.25</v>
       </c>
       <c r="H36" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I36" t="n">
         <v>2.75</v>
@@ -6971,19 +6971,19 @@
         <v>2.25</v>
       </c>
       <c r="S36" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T36" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U36" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V36" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X36" t="n">
         <v>13</v>
@@ -6998,13 +6998,13 @@
         <v>17</v>
       </c>
       <c r="AB36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC36" t="n">
         <v>15</v>
       </c>
       <c r="AD36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE36" t="n">
         <v>12</v>
@@ -7016,10 +7016,10 @@
         <v>126</v>
       </c>
       <c r="AH36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ36" t="n">
         <v>11</v>
@@ -7031,7 +7031,7 @@
         <v>21</v>
       </c>
       <c r="AM36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN36" t="n">
         <v>4.5</v>
@@ -7049,10 +7049,10 @@
         <v>51</v>
       </c>
       <c r="AS36" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT36" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU36" t="n">
         <v>7</v>
@@ -7061,7 +7061,7 @@
         <v>41</v>
       </c>
       <c r="AW36" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AX36" t="n">
         <v>5</v>
@@ -7073,7 +7073,7 @@
         <v>21</v>
       </c>
       <c r="BA36" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB36" t="n">
         <v>51</v>
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H37" t="n">
         <v>3.5</v>
       </c>
       <c r="I37" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J37" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
         <v>2.25</v>
       </c>
       <c r="L37" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="M37" t="n">
         <v>1.04</v>
@@ -7159,28 +7159,28 @@
         <v>3</v>
       </c>
       <c r="U37" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V37" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z37" t="n">
         <v>41</v>
       </c>
       <c r="AA37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB37" t="n">
         <v>29</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>34</v>
       </c>
       <c r="AC37" t="n">
         <v>12</v>
@@ -7201,13 +7201,13 @@
         <v>8.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ37" t="n">
         <v>8.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL37" t="n">
         <v>15</v>
@@ -7216,16 +7216,16 @@
         <v>23</v>
       </c>
       <c r="AN37" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ37" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR37" t="n">
         <v>81</v>
@@ -7249,7 +7249,7 @@
         <v>4</v>
       </c>
       <c r="AY37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ37" t="n">
         <v>19</v>
@@ -7308,7 +7308,7 @@
         <v>2.27</v>
       </c>
       <c r="J38" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K38" t="n">
         <v>2.15</v>
@@ -7326,7 +7326,7 @@
         <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q38" t="n">
         <v>1.65</v>
@@ -7335,10 +7335,10 @@
         <v>2.15</v>
       </c>
       <c r="S38" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="T38" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="U38" t="n">
         <v>1.53</v>
@@ -7347,10 +7347,10 @@
         <v>2.35</v>
       </c>
       <c r="W38" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X38" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y38" t="n">
         <v>10.25</v>
@@ -7371,7 +7371,7 @@
         <v>6.6</v>
       </c>
       <c r="AE38" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF38" t="n">
         <v>40</v>
@@ -7380,10 +7380,10 @@
         <v>250</v>
       </c>
       <c r="AH38" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AI38" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ38" t="n">
         <v>8.75</v>
@@ -7392,7 +7392,7 @@
         <v>24</v>
       </c>
       <c r="AL38" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AM38" t="n">
         <v>22</v>
@@ -7404,19 +7404,19 @@
         <v>15.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AQ38" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AR38" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS38" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT38" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AU38" t="n">
         <v>6.3</v>
@@ -7428,7 +7428,7 @@
         <v>51</v>
       </c>
       <c r="AX38" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AY38" t="n">
         <v>12</v>
@@ -7484,19 +7484,19 @@
         <v>1.83</v>
       </c>
       <c r="H39" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I39" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J39" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="K39" t="n">
         <v>2.3</v>
       </c>
       <c r="L39" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -7529,10 +7529,10 @@
         <v>2.37</v>
       </c>
       <c r="W39" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="X39" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Y39" t="n">
         <v>8.25</v>
@@ -7541,7 +7541,7 @@
         <v>17</v>
       </c>
       <c r="AA39" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB39" t="n">
         <v>18.5</v>
@@ -7553,19 +7553,19 @@
         <v>7.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF39" t="n">
         <v>40</v>
       </c>
       <c r="AG39" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH39" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI39" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ39" t="n">
         <v>12.5</v>
@@ -7577,7 +7577,7 @@
         <v>30</v>
       </c>
       <c r="AM39" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN39" t="n">
         <v>4.05</v>
@@ -7589,7 +7589,7 @@
         <v>14.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR39" t="n">
         <v>45</v>
@@ -7613,19 +7613,19 @@
         <v>6</v>
       </c>
       <c r="AY39" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ39" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA39" t="n">
         <v>100</v>
       </c>
       <c r="BB39" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BC39" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BD39" t="n">
         <v>51</v>
@@ -7663,22 +7663,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="H40" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="J40" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="K40" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L40" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M40" t="n">
         <v>1.04</v>
@@ -7696,7 +7696,7 @@
         <v>1.62</v>
       </c>
       <c r="R40" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S40" t="n">
         <v>1.32</v>
@@ -7705,34 +7705,34 @@
         <v>3.1</v>
       </c>
       <c r="U40" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V40" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="W40" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="X40" t="n">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z40" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AA40" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB40" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC40" t="n">
         <v>8.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AE40" t="n">
         <v>11.5</v>
@@ -7744,37 +7744,37 @@
         <v>250</v>
       </c>
       <c r="AH40" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AJ40" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AK40" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AL40" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM40" t="n">
         <v>26</v>
       </c>
-      <c r="AM40" t="n">
-        <v>27</v>
-      </c>
       <c r="AN40" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="AO40" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AP40" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ40" t="n">
         <v>35</v>
       </c>
       <c r="AR40" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS40" t="n">
         <v>150</v>
@@ -7792,19 +7792,19 @@
         <v>500</v>
       </c>
       <c r="AX40" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AY40" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AZ40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA40" t="n">
         <v>80</v>
       </c>
       <c r="BB40" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BC40" t="n">
         <v>200</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H41" t="n">
         <v>3.4</v>
       </c>
       <c r="I41" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J41" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K41" t="n">
         <v>2.2</v>
@@ -7896,16 +7896,16 @@
         <v>10</v>
       </c>
       <c r="X41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z41" t="n">
         <v>34</v>
       </c>
       <c r="AA41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB41" t="n">
         <v>34</v>
@@ -7926,19 +7926,19 @@
         <v>201</v>
       </c>
       <c r="AH41" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI41" t="n">
         <v>11</v>
       </c>
       <c r="AJ41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK41" t="n">
         <v>21</v>
       </c>
       <c r="AL41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM41" t="n">
         <v>26</v>
@@ -7956,7 +7956,7 @@
         <v>51</v>
       </c>
       <c r="AR41" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS41" t="n">
         <v>151</v>
@@ -8045,10 +8045,10 @@
         <v>4.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O42" t="n">
         <v>1.25</v>
@@ -8057,10 +8057,10 @@
         <v>3.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R42" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S42" t="n">
         <v>1.36</v>
@@ -8209,7 +8209,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H43" t="n">
         <v>3.1</v>
@@ -8218,19 +8218,19 @@
         <v>2.5</v>
       </c>
       <c r="J43" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K43" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L43" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O43" t="n">
         <v>1.29</v>
@@ -8263,10 +8263,10 @@
         <v>13</v>
       </c>
       <c r="Y43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA43" t="n">
         <v>21</v>
@@ -8278,7 +8278,7 @@
         <v>10</v>
       </c>
       <c r="AD43" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE43" t="n">
         <v>13</v>
@@ -8329,7 +8329,7 @@
         <v>2.75</v>
       </c>
       <c r="AU43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV43" t="n">
         <v>51</v>
@@ -8338,7 +8338,7 @@
         <v>126</v>
       </c>
       <c r="AX43" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY43" t="n">
         <v>15</v>
@@ -8347,7 +8347,7 @@
         <v>23</v>
       </c>
       <c r="BA43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB43" t="n">
         <v>67</v>
@@ -8391,55 +8391,55 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="I44" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="J44" t="n">
         <v>3.85</v>
       </c>
       <c r="K44" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="L44" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N44" t="n">
-        <v>8.050000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="O44" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="P44" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="R44" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="S44" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T44" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="U44" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="V44" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W44" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="X44" t="n">
         <v>15.5</v>
@@ -8451,46 +8451,46 @@
         <v>45</v>
       </c>
       <c r="AA44" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB44" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC44" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AD44" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AE44" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG44" t="n">
         <v>900</v>
       </c>
       <c r="AH44" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI44" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AJ44" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK44" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL44" t="n">
         <v>23</v>
       </c>
-      <c r="AL44" t="n">
-        <v>21</v>
-      </c>
       <c r="AM44" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AN44" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO44" t="n">
         <v>18.5</v>
@@ -8508,34 +8508,34 @@
         <v>400</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="AU44" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV44" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW44" t="n">
         <v>81</v>
       </c>
       <c r="AX44" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="AY44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ44" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BA44" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BB44" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="BC44" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BD44" t="n">
         <v>81</v>
@@ -8582,25 +8582,25 @@
         <v>18</v>
       </c>
       <c r="J45" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="K45" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="L45" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="M45" t="n">
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O45" t="n">
         <v>1.12</v>
       </c>
       <c r="P45" t="n">
-        <v>5.55</v>
+        <v>5.6</v>
       </c>
       <c r="Q45" t="n">
         <v>1.42</v>
@@ -8621,46 +8621,46 @@
         <v>1.47</v>
       </c>
       <c r="W45" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="X45" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y45" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Z45" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AA45" t="n">
         <v>11.25</v>
       </c>
       <c r="AB45" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC45" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD45" t="n">
         <v>15.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AF45" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AG45" t="n">
         <v>67</v>
       </c>
       <c r="AH45" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI45" t="n">
         <v>250</v>
       </c>
       <c r="AJ45" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK45" t="n">
         <v>900</v>
@@ -8669,13 +8669,13 @@
         <v>400</v>
       </c>
       <c r="AM45" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AN45" t="n">
         <v>2.95</v>
       </c>
       <c r="AO45" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AP45" t="n">
         <v>16</v>
@@ -8687,28 +8687,28 @@
         <v>35</v>
       </c>
       <c r="AS45" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT45" t="n">
         <v>3.65</v>
       </c>
       <c r="AU45" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AV45" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AW45" t="n">
         <v>81</v>
       </c>
       <c r="AX45" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AY45" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AZ45" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BA45" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-23.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
         <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
         <v>2.05</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -831,10 +831,10 @@
         <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>67</v>
@@ -846,7 +846,7 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
         <v>7.5</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -947,10 +947,10 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -959,10 +959,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>1.53</v>
@@ -980,22 +980,22 @@
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1028,7 +1028,7 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO3" t="n">
         <v>10</v>
@@ -1037,7 +1037,7 @@
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
         <v>67</v>
@@ -1067,16 +1067,16 @@
         <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
         <v>151</v>
       </c>
       <c r="BC3" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1622,7 +1622,7 @@
         <v>401</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
@@ -1657,16 +1657,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
@@ -1714,7 +1714,7 @@
         <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
         <v>21</v>
@@ -1789,7 +1789,7 @@
         <v>4.75</v>
       </c>
       <c r="AY7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ7" t="n">
         <v>26</v>
@@ -1857,10 +1857,10 @@
         <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.5</v>
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
@@ -2215,28 +2215,28 @@
         <v>2.63</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
         <v>4.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2263,13 +2263,13 @@
         <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
@@ -2284,7 +2284,7 @@
         <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>19</v>
@@ -2308,7 +2308,7 @@
         <v>11</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
@@ -2347,7 +2347,7 @@
         <v>126</v>
       </c>
       <c r="BC10" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD10" t="n">
         <v>51</v>
@@ -2406,7 +2406,7 @@
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -2567,58 +2567,58 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T12" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
         <v>12</v>
@@ -2627,31 +2627,31 @@
         <v>34</v>
       </c>
       <c r="AA12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD12" t="n">
         <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG12" t="n">
         <v>351</v>
       </c>
       <c r="AH12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ12" t="n">
         <v>10</v>
@@ -2660,34 +2660,34 @@
         <v>23</v>
       </c>
       <c r="AL12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="n">
         <v>5</v>
       </c>
       <c r="AO12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS12" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
         <v>67</v>
@@ -2699,19 +2699,19 @@
         <v>4.33</v>
       </c>
       <c r="AY12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
         <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD12" t="n">
         <v>126</v>
@@ -2749,10 +2749,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H13" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I13" t="n">
         <v>10</v>
@@ -2770,7 +2770,7 @@
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O13" t="n">
         <v>1.13</v>
@@ -2791,16 +2791,16 @@
         <v>4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W13" t="n">
         <v>10</v>
       </c>
       <c r="X13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
@@ -2878,7 +2878,7 @@
         <v>451</v>
       </c>
       <c r="AX13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY13" t="n">
         <v>41</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
         <v>1.91</v>
@@ -2946,13 +2946,13 @@
         <v>2.38</v>
       </c>
       <c r="L14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
         <v>1.25</v>
@@ -2982,13 +2982,13 @@
         <v>6.5</v>
       </c>
       <c r="X14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>9</v>
       </c>
       <c r="AA14" t="n">
         <v>12</v>
@@ -2997,7 +2997,7 @@
         <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
         <v>8.5</v>
@@ -3027,7 +3027,7 @@
         <v>67</v>
       </c>
       <c r="AM14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN14" t="n">
         <v>3.25</v>
@@ -3051,7 +3051,7 @@
         <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV14" t="n">
         <v>67</v>
@@ -3060,7 +3060,7 @@
         <v>51</v>
       </c>
       <c r="AX14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
         <v>41</v>
@@ -3069,7 +3069,7 @@
         <v>41</v>
       </c>
       <c r="BA14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB14" t="n">
         <v>201</v>
@@ -3119,7 +3119,7 @@
         <v>4.65</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J15" t="n">
         <v>1.9</v>
@@ -3149,10 +3149,10 @@
         <v>3.2</v>
       </c>
       <c r="S15" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="T15" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="U15" t="n">
         <v>1.4</v>
@@ -3164,7 +3164,7 @@
         <v>14.5</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -3191,22 +3191,22 @@
         <v>32</v>
       </c>
       <c r="AG15" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AH15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
         <v>45</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL15" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="n">
         <v>29</v>
@@ -3230,7 +3230,7 @@
         <v>80</v>
       </c>
       <c r="AT15" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AU15" t="n">
         <v>6.5</v>
@@ -3242,19 +3242,19 @@
         <v>350</v>
       </c>
       <c r="AX15" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AY15" t="n">
         <v>24</v>
       </c>
       <c r="AZ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA15" t="n">
         <v>110</v>
       </c>
       <c r="BB15" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BC15" t="n">
         <v>150</v>
@@ -3304,13 +3304,13 @@
         <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="K16" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="L16" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
@@ -3319,22 +3319,22 @@
         <v>21</v>
       </c>
       <c r="O16" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P16" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="R16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="S16" t="n">
         <v>1.2</v>
       </c>
       <c r="T16" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="U16" t="n">
         <v>1.38</v>
@@ -3352,7 +3352,7 @@
         <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA16" t="n">
         <v>11.25</v>
@@ -3361,13 +3361,13 @@
         <v>15</v>
       </c>
       <c r="AC16" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF16" t="n">
         <v>29</v>
@@ -3376,10 +3376,10 @@
         <v>120</v>
       </c>
       <c r="AH16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI16" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
@@ -3388,19 +3388,19 @@
         <v>75</v>
       </c>
       <c r="AL16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM16" t="n">
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AO16" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AP16" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AQ16" t="n">
         <v>20</v>
@@ -3409,13 +3409,13 @@
         <v>30</v>
       </c>
       <c r="AS16" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AT16" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AU16" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV16" t="n">
         <v>32</v>
@@ -3427,19 +3427,19 @@
         <v>7</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="BA16" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB16" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BC16" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BD16" t="n">
         <v>51</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K17" t="n">
         <v>2.05</v>
       </c>
-      <c r="J17" t="n">
-        <v>4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L17" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -3537,10 +3537,10 @@
         <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="n">
         <v>9.5</v>
@@ -3561,22 +3561,22 @@
         <v>7</v>
       </c>
       <c r="AI17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>9.5</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>9</v>
-      </c>
       <c r="AK17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
         <v>19</v>
       </c>
       <c r="AM17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO17" t="n">
         <v>19</v>
@@ -3606,10 +3606,10 @@
         <v>81</v>
       </c>
       <c r="AX17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AY17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ17" t="n">
         <v>23</v>
@@ -3621,7 +3621,7 @@
         <v>67</v>
       </c>
       <c r="BC17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD17" t="n">
         <v>81</v>
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
         <v>3.75</v>
@@ -3680,7 +3680,7 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
@@ -3707,10 +3707,10 @@
         <v>1.95</v>
       </c>
       <c r="W18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
@@ -3722,7 +3722,7 @@
         <v>13</v>
       </c>
       <c r="AB18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC18" t="n">
         <v>12</v>
@@ -3743,7 +3743,7 @@
         <v>15</v>
       </c>
       <c r="AI18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ18" t="n">
         <v>17</v>
@@ -3761,7 +3761,7 @@
         <v>3.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP18" t="n">
         <v>19</v>
@@ -3779,7 +3779,7 @@
         <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
@@ -3791,7 +3791,7 @@
         <v>7</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ18" t="n">
         <v>34</v>
@@ -3841,52 +3841,52 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I19" t="n">
         <v>2.4</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K19" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L19" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O19" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R19" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S19" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T19" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W19" t="n">
         <v>17</v>
@@ -3907,28 +3907,28 @@
         <v>19</v>
       </c>
       <c r="AC19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF19" t="n">
         <v>23</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>26</v>
       </c>
       <c r="AG19" t="n">
         <v>67</v>
       </c>
       <c r="AH19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
@@ -3937,7 +3937,7 @@
         <v>17</v>
       </c>
       <c r="AM19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN19" t="n">
         <v>5.5</v>
@@ -3946,7 +3946,7 @@
         <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ19" t="n">
         <v>41</v>
@@ -3955,10 +3955,10 @@
         <v>41</v>
       </c>
       <c r="AS19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT19" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU19" t="n">
         <v>6.5</v>
@@ -3970,7 +3970,7 @@
         <v>201</v>
       </c>
       <c r="AX19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY19" t="n">
         <v>12</v>
@@ -3985,7 +3985,7 @@
         <v>41</v>
       </c>
       <c r="BC19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BD19" t="n">
         <v>151</v>
@@ -4026,7 +4026,7 @@
         <v>3.4</v>
       </c>
       <c r="H20" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I20" t="n">
         <v>1.95</v>
@@ -4035,7 +4035,7 @@
         <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L20" t="n">
         <v>2.5</v>
@@ -4044,19 +4044,19 @@
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O20" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P20" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="R20" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S20" t="n">
         <v>1.29</v>
@@ -4065,10 +4065,10 @@
         <v>3.5</v>
       </c>
       <c r="U20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V20" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W20" t="n">
         <v>15</v>
@@ -4089,10 +4089,10 @@
         <v>26</v>
       </c>
       <c r="AC20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
         <v>12</v>
@@ -4101,13 +4101,13 @@
         <v>34</v>
       </c>
       <c r="AG20" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
         <v>9</v>
@@ -4116,13 +4116,13 @@
         <v>19</v>
       </c>
       <c r="AL20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO20" t="n">
         <v>17</v>
@@ -4134,10 +4134,10 @@
         <v>51</v>
       </c>
       <c r="AR20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS20" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT20" t="n">
         <v>3.5</v>
@@ -4149,7 +4149,7 @@
         <v>41</v>
       </c>
       <c r="AW20" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AX20" t="n">
         <v>4.33</v>
@@ -4161,13 +4161,13 @@
         <v>17</v>
       </c>
       <c r="BA20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB20" t="n">
         <v>41</v>
       </c>
       <c r="BC20" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
@@ -4226,19 +4226,19 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S21" t="n">
         <v>1.36</v>
@@ -4307,7 +4307,7 @@
         <v>5.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP21" t="n">
         <v>26</v>
@@ -4352,7 +4352,7 @@
         <v>126</v>
       </c>
       <c r="BD21" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J22" t="n">
         <v>2.75</v>
@@ -4402,7 +4402,7 @@
         <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
@@ -4438,10 +4438,10 @@
         <v>6</v>
       </c>
       <c r="X22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z22" t="n">
         <v>17</v>
@@ -4468,7 +4468,7 @@
         <v>351</v>
       </c>
       <c r="AH22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI22" t="n">
         <v>19</v>
@@ -4480,7 +4480,7 @@
         <v>41</v>
       </c>
       <c r="AL22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
         <v>41</v>
@@ -4516,7 +4516,7 @@
         <v>51</v>
       </c>
       <c r="AX22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY22" t="n">
         <v>23</v>
@@ -4531,7 +4531,7 @@
         <v>126</v>
       </c>
       <c r="BC22" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD22" t="n">
         <v>51</v>
@@ -4599,10 +4599,10 @@
         <v>2.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R23" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S23" t="n">
         <v>1.5</v>
@@ -4775,16 +4775,16 @@
         <v>13</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R24" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S24" t="n">
         <v>1.36</v>
@@ -5479,22 +5479,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I28" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="J28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="K28" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L28" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="M28" t="n">
         <v>1.02</v>
@@ -5521,10 +5521,10 @@
         <v>3.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W28" t="n">
         <v>26</v>
@@ -5533,10 +5533,10 @@
         <v>51</v>
       </c>
       <c r="Y28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z28" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AA28" t="n">
         <v>67</v>
@@ -5548,34 +5548,34 @@
         <v>19</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG28" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI28" t="n">
         <v>7</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
       </c>
       <c r="AM28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN28" t="n">
         <v>11</v>
@@ -5590,16 +5590,16 @@
         <v>201</v>
       </c>
       <c r="AR28" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS28" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT28" t="n">
         <v>3.75</v>
       </c>
       <c r="AU28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV28" t="n">
         <v>51</v>
@@ -5608,7 +5608,7 @@
         <v>126</v>
       </c>
       <c r="AX28" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AY28" t="n">
         <v>5.5</v>
@@ -5661,22 +5661,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J29" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K29" t="n">
         <v>2.1</v>
       </c>
       <c r="L29" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
@@ -5712,13 +5712,13 @@
         <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y29" t="n">
         <v>9</v>
       </c>
       <c r="Z29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA29" t="n">
         <v>17</v>
@@ -5739,16 +5739,16 @@
         <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH29" t="n">
         <v>11</v>
       </c>
       <c r="AI29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>41</v>
@@ -5766,10 +5766,10 @@
         <v>11</v>
       </c>
       <c r="AP29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR29" t="n">
         <v>51</v>
@@ -5781,7 +5781,7 @@
         <v>2.63</v>
       </c>
       <c r="AU29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV29" t="n">
         <v>51</v>
@@ -5790,22 +5790,22 @@
         <v>51</v>
       </c>
       <c r="AX29" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA29" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB29" t="n">
         <v>101</v>
       </c>
       <c r="BC29" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD29" t="n">
         <v>51</v>
@@ -5861,16 +5861,16 @@
         <v>2.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P30" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
         <v>2.1</v>
@@ -6031,7 +6031,7 @@
         <v>5.1</v>
       </c>
       <c r="I31" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="J31" t="n">
         <v>1.72</v>
@@ -6040,7 +6040,7 @@
         <v>2.52</v>
       </c>
       <c r="L31" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -6061,16 +6061,16 @@
         <v>2.35</v>
       </c>
       <c r="S31" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T31" t="n">
         <v>3.25</v>
       </c>
       <c r="U31" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V31" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W31" t="n">
         <v>7.9</v>
@@ -6082,7 +6082,7 @@
         <v>8.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AA31" t="n">
         <v>10.5</v>
@@ -6094,7 +6094,7 @@
         <v>9</v>
       </c>
       <c r="AD31" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AE31" t="n">
         <v>21</v>
@@ -6106,19 +6106,19 @@
         <v>600</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI31" t="n">
         <v>80</v>
       </c>
       <c r="AJ31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK31" t="n">
         <v>300</v>
       </c>
       <c r="AL31" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM31" t="n">
         <v>80</v>
@@ -6145,16 +6145,16 @@
         <v>3.25</v>
       </c>
       <c r="AU31" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AV31" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW31" t="n">
         <v>51</v>
       </c>
       <c r="AX31" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AY31" t="n">
         <v>55</v>
@@ -6207,28 +6207,28 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="H32" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I32" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J32" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="K32" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L32" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O32" t="n">
         <v>1.23</v>
@@ -6243,25 +6243,25 @@
         <v>2.05</v>
       </c>
       <c r="S32" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="T32" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="U32" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V32" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W32" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="X32" t="n">
         <v>45</v>
       </c>
       <c r="Y32" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z32" t="n">
         <v>150</v>
@@ -6273,16 +6273,16 @@
         <v>50</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD32" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG32" t="n">
         <v>400</v>
@@ -6291,28 +6291,28 @@
         <v>7.2</v>
       </c>
       <c r="AI32" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AJ32" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AK32" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AL32" t="n">
         <v>11.75</v>
       </c>
       <c r="AM32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN32" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO32" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP32" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ32" t="n">
         <v>200</v>
@@ -6324,10 +6324,10 @@
         <v>350</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AU32" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AV32" t="n">
         <v>55</v>
@@ -6336,19 +6336,19 @@
         <v>51</v>
       </c>
       <c r="AX32" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AY32" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AZ32" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="BA32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB32" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BC32" t="n">
         <v>175</v>
@@ -6389,28 +6389,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H33" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I33" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L33" t="n">
         <v>4.33</v>
       </c>
       <c r="M33" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N33" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.57</v>
@@ -6446,7 +6446,7 @@
         <v>11</v>
       </c>
       <c r="Z33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA33" t="n">
         <v>23</v>
@@ -6458,10 +6458,10 @@
         <v>5.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF33" t="n">
         <v>81</v>
@@ -6476,13 +6476,13 @@
         <v>15</v>
       </c>
       <c r="AJ33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK33" t="n">
         <v>41</v>
       </c>
       <c r="AL33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM33" t="n">
         <v>51</v>
@@ -6494,16 +6494,16 @@
         <v>15</v>
       </c>
       <c r="AP33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ33" t="n">
         <v>51</v>
       </c>
       <c r="AR33" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS33" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT33" t="n">
         <v>2.2</v>
@@ -6524,7 +6524,7 @@
         <v>21</v>
       </c>
       <c r="AZ33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA33" t="n">
         <v>81</v>
@@ -6571,19 +6571,19 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H34" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I34" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J34" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L34" t="n">
         <v>6.5</v>
@@ -6595,16 +6595,16 @@
         <v>13</v>
       </c>
       <c r="O34" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R34" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S34" t="n">
         <v>1.33</v>
@@ -6625,7 +6625,7 @@
         <v>7</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z34" t="n">
         <v>10</v>
@@ -6637,7 +6637,7 @@
         <v>26</v>
       </c>
       <c r="AC34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD34" t="n">
         <v>8.5</v>
@@ -6667,7 +6667,7 @@
         <v>51</v>
       </c>
       <c r="AM34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN34" t="n">
         <v>3.4</v>
@@ -6697,7 +6697,7 @@
         <v>51</v>
       </c>
       <c r="AW34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX34" t="n">
         <v>8</v>
@@ -6706,13 +6706,13 @@
         <v>34</v>
       </c>
       <c r="AZ34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA34" t="n">
         <v>126</v>
       </c>
       <c r="BB34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC34" t="n">
         <v>251</v>
@@ -7117,28 +7117,28 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H37" t="n">
         <v>3.5</v>
       </c>
       <c r="I37" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K37" t="n">
         <v>2.25</v>
       </c>
       <c r="L37" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="M37" t="n">
         <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O37" t="n">
         <v>1.22</v>
@@ -7159,28 +7159,28 @@
         <v>3</v>
       </c>
       <c r="U37" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V37" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z37" t="n">
         <v>41</v>
       </c>
       <c r="AA37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC37" t="n">
         <v>12</v>
@@ -7201,13 +7201,13 @@
         <v>8.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ37" t="n">
         <v>8.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL37" t="n">
         <v>15</v>
@@ -7216,16 +7216,16 @@
         <v>23</v>
       </c>
       <c r="AN37" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ37" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR37" t="n">
         <v>81</v>
@@ -7249,7 +7249,7 @@
         <v>4</v>
       </c>
       <c r="AY37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ37" t="n">
         <v>19</v>
@@ -7299,22 +7299,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I38" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="J38" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K38" t="n">
         <v>2.15</v>
       </c>
       <c r="L38" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="M38" t="n">
         <v>1.04</v>
@@ -7326,7 +7326,7 @@
         <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q38" t="n">
         <v>1.65</v>
@@ -7353,22 +7353,22 @@
         <v>18</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z38" t="n">
         <v>40</v>
       </c>
       <c r="AA38" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB38" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC38" t="n">
         <v>8.25</v>
       </c>
       <c r="AD38" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AE38" t="n">
         <v>11.25</v>
@@ -7380,7 +7380,7 @@
         <v>250</v>
       </c>
       <c r="AH38" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AI38" t="n">
         <v>13</v>
@@ -7395,16 +7395,16 @@
         <v>16.5</v>
       </c>
       <c r="AM38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN38" t="n">
         <v>5.1</v>
       </c>
       <c r="AO38" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AP38" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ38" t="n">
         <v>70</v>
@@ -7419,7 +7419,7 @@
         <v>2.95</v>
       </c>
       <c r="AU38" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV38" t="n">
         <v>45</v>
@@ -7431,16 +7431,16 @@
         <v>4.4</v>
       </c>
       <c r="AY38" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AZ38" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="BA38" t="n">
         <v>45</v>
       </c>
       <c r="BB38" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BC38" t="n">
         <v>175</v>
@@ -7481,22 +7481,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I39" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J39" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="K39" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L39" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -7520,16 +7520,16 @@
         <v>1.3</v>
       </c>
       <c r="T39" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="U39" t="n">
         <v>1.52</v>
       </c>
       <c r="V39" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="W39" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="X39" t="n">
         <v>10.75</v>
@@ -7538,10 +7538,10 @@
         <v>8.25</v>
       </c>
       <c r="Z39" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB39" t="n">
         <v>18.5</v>
@@ -7550,46 +7550,46 @@
         <v>9</v>
       </c>
       <c r="AD39" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AE39" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF39" t="n">
         <v>40</v>
       </c>
       <c r="AG39" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AH39" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ39" t="n">
         <v>12.5</v>
       </c>
       <c r="AK39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL39" t="n">
         <v>30</v>
       </c>
       <c r="AM39" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN39" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="AO39" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AP39" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AR39" t="n">
         <v>45</v>
@@ -7598,10 +7598,10 @@
         <v>150</v>
       </c>
       <c r="AT39" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AU39" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV39" t="n">
         <v>45</v>
@@ -7616,7 +7616,7 @@
         <v>20</v>
       </c>
       <c r="AZ39" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA39" t="n">
         <v>100</v>
@@ -7625,7 +7625,7 @@
         <v>110</v>
       </c>
       <c r="BC39" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD39" t="n">
         <v>51</v>
@@ -7663,22 +7663,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H40" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I40" t="n">
         <v>3.55</v>
       </c>
       <c r="J40" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="K40" t="n">
         <v>2.25</v>
       </c>
       <c r="L40" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="M40" t="n">
         <v>1.04</v>
@@ -7705,16 +7705,16 @@
         <v>3.1</v>
       </c>
       <c r="U40" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="V40" t="n">
         <v>2.32</v>
       </c>
       <c r="W40" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="X40" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="Y40" t="n">
         <v>8.25</v>
@@ -7723,19 +7723,19 @@
         <v>18</v>
       </c>
       <c r="AA40" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC40" t="n">
         <v>8.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE40" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF40" t="n">
         <v>40</v>
@@ -7744,37 +7744,37 @@
         <v>250</v>
       </c>
       <c r="AH40" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ40" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AK40" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL40" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN40" t="n">
         <v>4.1</v>
       </c>
       <c r="AO40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP40" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ40" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR40" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS40" t="n">
         <v>150</v>
@@ -7783,7 +7783,7 @@
         <v>3.1</v>
       </c>
       <c r="AU40" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV40" t="n">
         <v>45</v>
@@ -7795,19 +7795,19 @@
         <v>5.7</v>
       </c>
       <c r="AY40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ40" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA40" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB40" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="BC40" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD40" t="n">
         <v>51</v>
@@ -7869,16 +7869,16 @@
         <v>11</v>
       </c>
       <c r="O41" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P41" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="R41" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S41" t="n">
         <v>1.4</v>
@@ -7971,7 +7971,7 @@
         <v>51</v>
       </c>
       <c r="AW41" t="n">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="AX41" t="n">
         <v>4.33</v>
@@ -8036,7 +8036,7 @@
         <v>4.33</v>
       </c>
       <c r="J42" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K42" t="n">
         <v>2.25</v>
@@ -8045,10 +8045,10 @@
         <v>4.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O42" t="n">
         <v>1.25</v>
@@ -8057,10 +8057,10 @@
         <v>3.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R42" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S42" t="n">
         <v>1.36</v>
@@ -8087,7 +8087,7 @@
         <v>15</v>
       </c>
       <c r="AA42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB42" t="n">
         <v>23</v>
@@ -8126,7 +8126,7 @@
         <v>41</v>
       </c>
       <c r="AN42" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO42" t="n">
         <v>9.5</v>
@@ -8165,7 +8165,7 @@
         <v>29</v>
       </c>
       <c r="BA42" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB42" t="n">
         <v>81</v>
@@ -8227,22 +8227,22 @@
         <v>3.25</v>
       </c>
       <c r="M43" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O43" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P43" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R43" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S43" t="n">
         <v>1.4</v>
@@ -8391,70 +8391,70 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H44" t="n">
         <v>2.87</v>
       </c>
       <c r="I44" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="J44" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K44" t="n">
         <v>1.9</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="M44" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N44" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P44" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R44" t="n">
         <v>1.47</v>
       </c>
       <c r="S44" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T44" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="U44" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V44" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W44" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X44" t="n">
         <v>15.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Z44" t="n">
         <v>45</v>
       </c>
       <c r="AA44" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB44" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC44" t="n">
         <v>6.6</v>
@@ -8463,7 +8463,7 @@
         <v>5.7</v>
       </c>
       <c r="AE44" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF44" t="n">
         <v>100</v>
@@ -8478,22 +8478,22 @@
         <v>10</v>
       </c>
       <c r="AJ44" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK44" t="n">
         <v>24</v>
       </c>
       <c r="AL44" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM44" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN44" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AO44" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AP44" t="n">
         <v>28</v>
@@ -8505,13 +8505,13 @@
         <v>150</v>
       </c>
       <c r="AS44" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="AU44" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AV44" t="n">
         <v>80</v>
@@ -8526,13 +8526,13 @@
         <v>13</v>
       </c>
       <c r="AZ44" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA44" t="n">
         <v>60</v>
       </c>
       <c r="BB44" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BC44" t="n">
         <v>400</v>
@@ -8576,19 +8576,19 @@
         <v>1.14</v>
       </c>
       <c r="H45" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="I45" t="n">
         <v>18</v>
       </c>
       <c r="J45" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="K45" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="L45" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="M45" t="n">
         <v>1.01</v>
@@ -8600,25 +8600,25 @@
         <v>1.12</v>
       </c>
       <c r="P45" t="n">
-        <v>5.6</v>
+        <v>5.65</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R45" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="S45" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="T45" t="n">
-        <v>3.92</v>
+        <v>3.95</v>
       </c>
       <c r="U45" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="V45" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W45" t="n">
         <v>8.25</v>
@@ -8636,31 +8636,31 @@
         <v>11.25</v>
       </c>
       <c r="AB45" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC45" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AD45" t="n">
         <v>15.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AF45" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AG45" t="n">
         <v>67</v>
       </c>
       <c r="AH45" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI45" t="n">
         <v>250</v>
       </c>
       <c r="AJ45" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK45" t="n">
         <v>900</v>
@@ -8675,7 +8675,7 @@
         <v>2.95</v>
       </c>
       <c r="AO45" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AP45" t="n">
         <v>16</v>
@@ -8687,28 +8687,28 @@
         <v>35</v>
       </c>
       <c r="AS45" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT45" t="n">
         <v>3.65</v>
       </c>
       <c r="AU45" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AV45" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AW45" t="n">
         <v>81</v>
       </c>
       <c r="AX45" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AY45" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AZ45" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BA45" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-23.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
         <v>6</v>
@@ -828,7 +828,7 @@
         <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
         <v>34</v>
@@ -876,16 +876,16 @@
         <v>501</v>
       </c>
       <c r="AX2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
         <v>34</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
         <v>126</v>
@@ -932,7 +932,7 @@
         <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
         <v>5.25</v>
@@ -953,10 +953,10 @@
         <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
         <v>2.63</v>
@@ -965,10 +965,10 @@
         <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U3" t="n">
         <v>2.25</v>
@@ -983,7 +983,7 @@
         <v>7</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>13</v>
@@ -1037,7 +1037,7 @@
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
         <v>67</v>
@@ -1046,10 +1046,10 @@
         <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
@@ -1073,7 +1073,7 @@
         <v>151</v>
       </c>
       <c r="BC3" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD3" t="n">
         <v>126</v>
@@ -1132,7 +1132,7 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1192,7 +1192,7 @@
         <v>251</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>13</v>
@@ -1240,7 +1240,7 @@
         <v>81</v>
       </c>
       <c r="AX4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY4" t="n">
         <v>15</v>
@@ -1317,16 +1317,16 @@
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
         <v>1.53</v>
@@ -1857,10 +1857,10 @@
         <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1869,10 +1869,10 @@
         <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -1905,7 +1905,7 @@
         <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1923,13 +1923,13 @@
         <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
         <v>11</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
         <v>23</v>
@@ -2039,10 +2039,10 @@
         <v>3.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -2203,40 +2203,40 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H10" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K10" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R10" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S10" t="n">
         <v>1.22</v>
@@ -2254,19 +2254,19 @@
         <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA10" t="n">
         <v>10</v>
       </c>
       <c r="AB10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
         <v>19</v>
@@ -2281,7 +2281,7 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH10" t="n">
         <v>29</v>
@@ -2290,28 +2290,28 @@
         <v>51</v>
       </c>
       <c r="AJ10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM10" t="n">
         <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP10" t="n">
         <v>15</v>
       </c>
       <c r="AQ10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR10" t="n">
         <v>34</v>
@@ -2323,28 +2323,28 @@
         <v>4</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY10" t="n">
         <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="n">
         <v>151</v>
       </c>
       <c r="BB10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
         <v>201</v>
@@ -2394,13 +2394,13 @@
         <v>9</v>
       </c>
       <c r="J11" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K11" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2409,22 +2409,22 @@
         <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U11" t="n">
         <v>2.1</v>
@@ -2436,7 +2436,7 @@
         <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
@@ -2466,7 +2466,7 @@
         <v>351</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
         <v>41</v>
@@ -2481,7 +2481,7 @@
         <v>67</v>
       </c>
       <c r="AM11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN11" t="n">
         <v>3.25</v>
@@ -2502,10 +2502,10 @@
         <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV11" t="n">
         <v>67</v>
@@ -2523,7 +2523,7 @@
         <v>41</v>
       </c>
       <c r="BA11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB11" t="n">
         <v>201</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H12" t="n">
         <v>4.7</v>
       </c>
       <c r="I12" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J12" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="K12" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="L12" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
@@ -2594,13 +2594,13 @@
         <v>1.09</v>
       </c>
       <c r="P12" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Q12" t="n">
         <v>1.3</v>
       </c>
       <c r="R12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="S12" t="n">
         <v>1.19</v>
@@ -2618,25 +2618,25 @@
         <v>14.5</v>
       </c>
       <c r="X12" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y12" t="n">
         <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA12" t="n">
         <v>10.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD12" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
@@ -2648,7 +2648,7 @@
         <v>150</v>
       </c>
       <c r="AH12" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI12" t="n">
         <v>45</v>
@@ -2663,22 +2663,22 @@
         <v>40</v>
       </c>
       <c r="AM12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AO12" t="n">
         <v>6.9</v>
       </c>
       <c r="AP12" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AQ12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AR12" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AS12" t="n">
         <v>80</v>
@@ -2696,19 +2696,19 @@
         <v>350</v>
       </c>
       <c r="AX12" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA12" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB12" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BC12" t="n">
         <v>150</v>
@@ -2749,79 +2749,79 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H13" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="I13" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="J13" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="K13" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="L13" t="n">
-        <v>4.15</v>
+        <v>4.4</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O13" t="n">
         <v>1.09</v>
       </c>
       <c r="P13" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="R13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="T13" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="U13" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="V13" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="W13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AB13" t="n">
         <v>15</v>
       </c>
       <c r="AC13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF13" t="n">
         <v>30</v>
@@ -2830,43 +2830,43 @@
         <v>120</v>
       </c>
       <c r="AH13" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL13" t="n">
         <v>35</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>32</v>
-      </c>
       <c r="AM13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AP13" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AQ13" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AR13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS13" t="n">
         <v>80</v>
       </c>
       <c r="AT13" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AU13" t="n">
         <v>6.4</v>
@@ -2878,19 +2878,19 @@
         <v>350</v>
       </c>
       <c r="AX13" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BA13" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB13" t="n">
         <v>90</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>80</v>
       </c>
       <c r="BC13" t="n">
         <v>150</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J14" t="n">
         <v>3.75</v>
@@ -3027,7 +3027,7 @@
         <v>19</v>
       </c>
       <c r="AM14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN14" t="n">
         <v>5</v>
@@ -3075,7 +3075,7 @@
         <v>67</v>
       </c>
       <c r="BC14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD14" t="n">
         <v>81</v>
@@ -3113,16 +3113,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K15" t="n">
         <v>2.3</v>
@@ -3137,22 +3137,22 @@
         <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U15" t="n">
         <v>1.8</v>
@@ -3164,7 +3164,7 @@
         <v>7.5</v>
       </c>
       <c r="X15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
@@ -3173,7 +3173,7 @@
         <v>12</v>
       </c>
       <c r="AA15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB15" t="n">
         <v>23</v>
@@ -3182,7 +3182,7 @@
         <v>12</v>
       </c>
       <c r="AD15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>17</v>
@@ -3197,7 +3197,7 @@
         <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ15" t="n">
         <v>17</v>
@@ -3215,13 +3215,13 @@
         <v>3.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="n">
         <v>41</v>
@@ -3230,7 +3230,7 @@
         <v>126</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU15" t="n">
         <v>8</v>
@@ -3245,7 +3245,7 @@
         <v>7</v>
       </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ15" t="n">
         <v>34</v>
@@ -3295,16 +3295,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
         <v>3.9</v>
       </c>
       <c r="I16" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
         <v>2.6</v>
@@ -3316,7 +3316,7 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O16" t="n">
         <v>1.1</v>
@@ -3337,13 +3337,13 @@
         <v>4.33</v>
       </c>
       <c r="U16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X16" t="n">
         <v>21</v>
@@ -3376,7 +3376,7 @@
         <v>67</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
         <v>17</v>
@@ -3385,7 +3385,7 @@
         <v>10</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
         <v>15</v>
@@ -3409,7 +3409,7 @@
         <v>41</v>
       </c>
       <c r="AS16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AT16" t="n">
         <v>4.33</v>
@@ -3427,7 +3427,7 @@
         <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ16" t="n">
         <v>15</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L17" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -3501,16 +3501,16 @@
         <v>17</v>
       </c>
       <c r="O17" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R17" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S17" t="n">
         <v>1.29</v>
@@ -3525,28 +3525,28 @@
         <v>2.5</v>
       </c>
       <c r="W17" t="n">
+        <v>12</v>
+      </c>
+      <c r="X17" t="n">
         <v>15</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB17" t="n">
         <v>21</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>26</v>
       </c>
       <c r="AC17" t="n">
         <v>17</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE17" t="n">
         <v>12</v>
@@ -3558,34 +3558,34 @@
         <v>101</v>
       </c>
       <c r="AH17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI17" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL17" t="n">
         <v>19</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AM17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO17" t="n">
         <v>13</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>19</v>
       </c>
-      <c r="AN17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR17" t="n">
         <v>51</v>
@@ -3606,22 +3606,22 @@
         <v>301</v>
       </c>
       <c r="AX17" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AY17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA17" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BB17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD17" t="n">
         <v>151</v>
@@ -3659,10 +3659,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
         <v>1.85</v>
@@ -3671,16 +3671,16 @@
         <v>4.33</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L18" t="n">
         <v>2.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
@@ -3689,10 +3689,10 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S18" t="n">
         <v>1.36</v>
@@ -3701,10 +3701,10 @@
         <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W18" t="n">
         <v>13</v>
@@ -3713,22 +3713,22 @@
         <v>21</v>
       </c>
       <c r="Y18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z18" t="n">
         <v>41</v>
       </c>
       <c r="AA18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB18" t="n">
         <v>34</v>
       </c>
-      <c r="AB18" t="n">
-        <v>41</v>
-      </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
@@ -3737,13 +3737,13 @@
         <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH18" t="n">
         <v>8</v>
       </c>
       <c r="AI18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ18" t="n">
         <v>8.5</v>
@@ -3764,7 +3764,7 @@
         <v>21</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ18" t="n">
         <v>67</v>
@@ -3773,13 +3773,13 @@
         <v>81</v>
       </c>
       <c r="AS18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
         <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
@@ -4205,28 +4205,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H21" t="n">
         <v>4.5</v>
       </c>
       <c r="I21" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="J21" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K21" t="n">
         <v>2.38</v>
       </c>
       <c r="L21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O21" t="n">
         <v>1.25</v>
@@ -4235,10 +4235,10 @@
         <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R21" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S21" t="n">
         <v>1.36</v>
@@ -4247,22 +4247,22 @@
         <v>3</v>
       </c>
       <c r="U21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X21" t="n">
         <v>6</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA21" t="n">
         <v>13</v>
@@ -4271,7 +4271,7 @@
         <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
         <v>9</v>
@@ -4286,25 +4286,25 @@
         <v>351</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
         <v>41</v>
       </c>
       <c r="AJ21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK21" t="n">
         <v>101</v>
       </c>
       <c r="AL21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO21" t="n">
         <v>6.5</v>
@@ -4334,19 +4334,19 @@
         <v>126</v>
       </c>
       <c r="AX21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY21" t="n">
         <v>41</v>
       </c>
       <c r="AZ21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA21" t="n">
         <v>201</v>
       </c>
       <c r="BB21" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC21" t="n">
         <v>351</v>
@@ -4387,10 +4387,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
         <v>4.75</v>
@@ -4402,7 +4402,7 @@
         <v>2.25</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -4438,7 +4438,7 @@
         <v>7.5</v>
       </c>
       <c r="X22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y22" t="n">
         <v>8.5</v>
@@ -4450,7 +4450,7 @@
         <v>13</v>
       </c>
       <c r="AB22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC22" t="n">
         <v>11</v>
@@ -4465,7 +4465,7 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH22" t="n">
         <v>15</v>
@@ -4489,7 +4489,7 @@
         <v>3.75</v>
       </c>
       <c r="AO22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP22" t="n">
         <v>19</v>
@@ -4519,7 +4519,7 @@
         <v>6.5</v>
       </c>
       <c r="AY22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ22" t="n">
         <v>29</v>
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J23" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K23" t="n">
         <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -4611,16 +4611,16 @@
         <v>2.75</v>
       </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V23" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y23" t="n">
         <v>8.5</v>
@@ -4638,7 +4638,7 @@
         <v>11</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE23" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH23" t="n">
         <v>12</v>
@@ -4656,7 +4656,7 @@
         <v>21</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
         <v>41</v>
@@ -4668,10 +4668,10 @@
         <v>41</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP23" t="n">
         <v>21</v>
@@ -4701,16 +4701,16 @@
         <v>6</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ23" t="n">
         <v>29</v>
       </c>
       <c r="BA23" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB23" t="n">
         <v>81</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>101</v>
       </c>
       <c r="BC23" t="n">
         <v>201</v>
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H24" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K24" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
@@ -4793,22 +4793,22 @@
         <v>3</v>
       </c>
       <c r="U24" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V24" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W24" t="n">
         <v>6</v>
       </c>
       <c r="X24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y24" t="n">
         <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA24" t="n">
         <v>13</v>
@@ -4820,10 +4820,10 @@
         <v>10</v>
       </c>
       <c r="AD24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF24" t="n">
         <v>81</v>
@@ -4838,28 +4838,28 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK24" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM24" t="n">
         <v>67</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP24" t="n">
         <v>21</v>
       </c>
       <c r="AQ24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR24" t="n">
         <v>41</v>
@@ -4871,25 +4871,25 @@
         <v>3</v>
       </c>
       <c r="AU24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW24" t="n">
         <v>126</v>
       </c>
       <c r="AX24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY24" t="n">
         <v>41</v>
       </c>
       <c r="AZ24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA24" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB24" t="n">
         <v>251</v>
@@ -4898,7 +4898,7 @@
         <v>351</v>
       </c>
       <c r="BD24" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25">
@@ -4933,28 +4933,28 @@
         </is>
       </c>
       <c r="G25" t="n">
+        <v>11</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J25" t="n">
         <v>10</v>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="J25" t="n">
-        <v>9</v>
       </c>
       <c r="K25" t="n">
         <v>2.88</v>
       </c>
       <c r="L25" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="M25" t="n">
         <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O25" t="n">
         <v>1.14</v>
@@ -4975,109 +4975,109 @@
         <v>3.75</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V25" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="W25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X25" t="n">
         <v>51</v>
       </c>
       <c r="Y25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z25" t="n">
         <v>151</v>
       </c>
       <c r="AA25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AB25" t="n">
         <v>67</v>
       </c>
-      <c r="AB25" t="n">
-        <v>51</v>
-      </c>
       <c r="AC25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD25" t="n">
         <v>13</v>
       </c>
       <c r="AE25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF25" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG25" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AH25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ25" t="n">
         <v>9.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AL25" t="n">
         <v>11</v>
       </c>
       <c r="AM25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ25" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AR25" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AS25" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AT25" t="n">
         <v>3.75</v>
       </c>
       <c r="AU25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW25" t="n">
         <v>126</v>
       </c>
       <c r="AX25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AY25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
         <v>34</v>
       </c>
       <c r="BC25" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD25" t="n">
         <v>126</v>
@@ -5327,10 +5327,10 @@
         <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R27" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S27" t="n">
         <v>1.44</v>
@@ -5661,97 +5661,97 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="H29" t="n">
-        <v>3.65</v>
+        <v>4.05</v>
       </c>
       <c r="I29" t="n">
         <v>1.57</v>
       </c>
       <c r="J29" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="K29" t="n">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="L29" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P29" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="R29" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="S29" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="T29" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="U29" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V29" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W29" t="n">
         <v>15.5</v>
       </c>
       <c r="X29" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Y29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z29" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AA29" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AB29" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="AE29" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG29" t="n">
         <v>450</v>
       </c>
       <c r="AH29" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AJ29" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AK29" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AL29" t="n">
         <v>11.75</v>
@@ -5760,28 +5760,28 @@
         <v>22</v>
       </c>
       <c r="AN29" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="AO29" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AP29" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AQ29" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="AR29" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AS29" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="AU29" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AV29" t="n">
         <v>60</v>
@@ -5790,13 +5790,13 @@
         <v>51</v>
       </c>
       <c r="AX29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AY29" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AZ29" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BA29" t="n">
         <v>22</v>
@@ -5846,13 +5846,13 @@
         <v>2.3</v>
       </c>
       <c r="H30" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I30" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J30" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
         <v>1.91</v>
@@ -5867,22 +5867,22 @@
         <v>6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P30" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R30" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S30" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T30" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U30" t="n">
         <v>2.2</v>
@@ -5918,19 +5918,19 @@
         <v>19</v>
       </c>
       <c r="AF30" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG30" t="n">
         <v>201</v>
       </c>
       <c r="AH30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
         <v>41</v>
@@ -5945,7 +5945,7 @@
         <v>4</v>
       </c>
       <c r="AO30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP30" t="n">
         <v>29</v>
@@ -5960,10 +5960,10 @@
         <v>301</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV30" t="n">
         <v>81</v>
@@ -6025,46 +6025,46 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="H31" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I31" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K31" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L31" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O31" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P31" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="R31" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="S31" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T31" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U31" t="n">
         <v>1.95</v>
@@ -6073,7 +6073,7 @@
         <v>1.8</v>
       </c>
       <c r="W31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X31" t="n">
         <v>7</v>
@@ -6082,19 +6082,19 @@
         <v>8.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB31" t="n">
         <v>26</v>
       </c>
       <c r="AC31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE31" t="n">
         <v>19</v>
@@ -6106,43 +6106,43 @@
         <v>351</v>
       </c>
       <c r="AH31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>17</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>19</v>
       </c>
       <c r="AK31" t="n">
         <v>67</v>
       </c>
       <c r="AL31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP31" t="n">
         <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="n">
         <v>41</v>
       </c>
       <c r="AS31" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU31" t="n">
         <v>8.5</v>
@@ -6154,19 +6154,19 @@
         <v>151</v>
       </c>
       <c r="AX31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ31" t="n">
         <v>34</v>
       </c>
-      <c r="AZ31" t="n">
-        <v>41</v>
-      </c>
       <c r="BA31" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB31" t="n">
         <v>126</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>151</v>
       </c>
       <c r="BC31" t="n">
         <v>251</v>
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H32" t="n">
         <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
         <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
@@ -6231,22 +6231,22 @@
         <v>11</v>
       </c>
       <c r="O32" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R32" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S32" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T32" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U32" t="n">
         <v>1.7</v>
@@ -6258,19 +6258,19 @@
         <v>9</v>
       </c>
       <c r="X32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z32" t="n">
         <v>23</v>
       </c>
       <c r="AA32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC32" t="n">
         <v>11</v>
@@ -6288,19 +6288,19 @@
         <v>201</v>
       </c>
       <c r="AH32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM32" t="n">
         <v>29</v>
@@ -6312,19 +6312,19 @@
         <v>13</v>
       </c>
       <c r="AP32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ32" t="n">
         <v>41</v>
       </c>
       <c r="AR32" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS32" t="n">
         <v>151</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU32" t="n">
         <v>7.5</v>
@@ -6333,10 +6333,10 @@
         <v>51</v>
       </c>
       <c r="AW32" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="AX32" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY32" t="n">
         <v>15</v>
@@ -6389,22 +6389,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H33" t="n">
         <v>3.6</v>
       </c>
       <c r="I33" t="n">
+        <v>3</v>
+      </c>
+      <c r="J33" t="n">
         <v>2.75</v>
       </c>
-      <c r="J33" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K33" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L33" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -6419,10 +6419,10 @@
         <v>4.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R33" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S33" t="n">
         <v>1.3</v>
@@ -6437,19 +6437,19 @@
         <v>2.38</v>
       </c>
       <c r="W33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB33" t="n">
         <v>21</v>
@@ -6470,34 +6470,34 @@
         <v>126</v>
       </c>
       <c r="AH33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ33" t="n">
         <v>11</v>
       </c>
       <c r="AK33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL33" t="n">
         <v>21</v>
       </c>
       <c r="AM33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN33" t="n">
         <v>4.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR33" t="n">
         <v>51</v>
@@ -6518,16 +6518,16 @@
         <v>351</v>
       </c>
       <c r="AX33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ33" t="n">
         <v>21</v>
       </c>
       <c r="BA33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB33" t="n">
         <v>51</v>
@@ -6571,28 +6571,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="H34" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I34" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="J34" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="K34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L34" t="n">
         <v>2.25</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.5</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O34" t="n">
         <v>1.22</v>
@@ -6601,52 +6601,52 @@
         <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R34" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V34" t="n">
         <v>2</v>
       </c>
-      <c r="S34" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T34" t="n">
-        <v>3</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V34" t="n">
-        <v>2.05</v>
-      </c>
       <c r="W34" t="n">
+        <v>15</v>
+      </c>
+      <c r="X34" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC34" t="n">
         <v>13</v>
       </c>
-      <c r="X34" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>12</v>
-      </c>
       <c r="AD34" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE34" t="n">
         <v>15</v>
       </c>
       <c r="AF34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG34" t="n">
         <v>201</v>
@@ -6655,43 +6655,43 @@
         <v>8</v>
       </c>
       <c r="AI34" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ34" t="n">
         <v>8.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM34" t="n">
         <v>23</v>
       </c>
       <c r="AN34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ34" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR34" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS34" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT34" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU34" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV34" t="n">
         <v>51</v>
@@ -6700,25 +6700,25 @@
         <v>501</v>
       </c>
       <c r="AX34" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AY34" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AZ34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA34" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="BB34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC34" t="n">
         <v>126</v>
       </c>
       <c r="BD34" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35">
@@ -6756,16 +6756,16 @@
         <v>2.95</v>
       </c>
       <c r="H35" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I35" t="n">
         <v>2.25</v>
       </c>
       <c r="J35" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K35" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L35" t="n">
         <v>2.75</v>
@@ -6777,10 +6777,10 @@
         <v>8.25</v>
       </c>
       <c r="O35" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P35" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="Q35" t="n">
         <v>1.65</v>
@@ -6789,25 +6789,25 @@
         <v>2.15</v>
       </c>
       <c r="S35" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T35" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U35" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V35" t="n">
         <v>2.35</v>
       </c>
       <c r="W35" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="X35" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z35" t="n">
         <v>37</v>
@@ -6816,13 +6816,13 @@
         <v>23</v>
       </c>
       <c r="AB35" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC35" t="n">
         <v>8.25</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE35" t="n">
         <v>11.25</v>
@@ -6834,10 +6834,10 @@
         <v>250</v>
       </c>
       <c r="AH35" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI35" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ35" t="n">
         <v>8.75</v>
@@ -6849,19 +6849,19 @@
         <v>16</v>
       </c>
       <c r="AM35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN35" t="n">
         <v>5.2</v>
       </c>
       <c r="AO35" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AQ35" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR35" t="n">
         <v>90</v>
@@ -6870,7 +6870,7 @@
         <v>200</v>
       </c>
       <c r="AT35" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU35" t="n">
         <v>6.3</v>
@@ -6879,7 +6879,7 @@
         <v>45</v>
       </c>
       <c r="AW35" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="AX35" t="n">
         <v>4.45</v>
@@ -6935,22 +6935,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="H36" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I36" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="J36" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K36" t="n">
         <v>2.35</v>
       </c>
-      <c r="K36" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L36" t="n">
-        <v>4.05</v>
+        <v>4.5</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
@@ -6959,103 +6959,103 @@
         <v>9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P36" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="R36" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="S36" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T36" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="U36" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V36" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="W36" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="X36" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z36" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AB36" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC36" t="n">
         <v>9</v>
       </c>
       <c r="AD36" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AE36" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AF36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL36" t="n">
         <v>37</v>
       </c>
-      <c r="AG36" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>30</v>
-      </c>
       <c r="AM36" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AN36" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="AO36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP36" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ36" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AR36" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AS36" t="n">
         <v>150</v>
       </c>
       <c r="AT36" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AU36" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AV36" t="n">
         <v>45</v>
@@ -7064,22 +7064,22 @@
         <v>51</v>
       </c>
       <c r="AX36" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="AY36" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AZ36" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BA36" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="BB36" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BC36" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD36" t="n">
         <v>51</v>
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="H37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I37" t="n">
         <v>3.55</v>
       </c>
-      <c r="I37" t="n">
-        <v>3.45</v>
-      </c>
       <c r="J37" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="K37" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L37" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="M37" t="n">
         <v>1.04</v>
@@ -7150,46 +7150,46 @@
         <v>1.62</v>
       </c>
       <c r="R37" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S37" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T37" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="U37" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="V37" t="n">
         <v>2.32</v>
       </c>
       <c r="W37" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="X37" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z37" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA37" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC37" t="n">
         <v>8.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE37" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF37" t="n">
         <v>40</v>
@@ -7198,46 +7198,46 @@
         <v>250</v>
       </c>
       <c r="AH37" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ37" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK37" t="n">
         <v>50</v>
       </c>
       <c r="AL37" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM37" t="n">
         <v>28</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AO37" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ37" t="n">
         <v>32</v>
       </c>
       <c r="AR37" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS37" t="n">
         <v>150</v>
       </c>
       <c r="AT37" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AU37" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV37" t="n">
         <v>45</v>
@@ -7246,13 +7246,13 @@
         <v>500</v>
       </c>
       <c r="AX37" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AY37" t="n">
         <v>18.5</v>
       </c>
       <c r="AZ37" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA37" t="n">
         <v>90</v>
@@ -7261,7 +7261,7 @@
         <v>100</v>
       </c>
       <c r="BC37" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BD37" t="n">
         <v>51</v>
@@ -7299,40 +7299,40 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J38" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K38" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L38" t="n">
         <v>2.88</v>
       </c>
       <c r="M38" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O38" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="R38" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="S38" t="n">
         <v>1.36</v>
@@ -7341,10 +7341,10 @@
         <v>3</v>
       </c>
       <c r="U38" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V38" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W38" t="n">
         <v>11</v>
@@ -7353,10 +7353,10 @@
         <v>17</v>
       </c>
       <c r="Y38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA38" t="n">
         <v>23</v>
@@ -7365,7 +7365,7 @@
         <v>29</v>
       </c>
       <c r="AC38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD38" t="n">
         <v>6.5</v>
@@ -7377,16 +7377,16 @@
         <v>41</v>
       </c>
       <c r="AG38" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK38" t="n">
         <v>21</v>
@@ -7395,13 +7395,13 @@
         <v>17</v>
       </c>
       <c r="AM38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN38" t="n">
         <v>5</v>
       </c>
       <c r="AO38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP38" t="n">
         <v>23</v>
@@ -7428,7 +7428,7 @@
         <v>251</v>
       </c>
       <c r="AX38" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY38" t="n">
         <v>12</v>
@@ -7443,7 +7443,7 @@
         <v>51</v>
       </c>
       <c r="BC38" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD38" t="n">
         <v>301</v>
@@ -7481,19 +7481,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H39" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I39" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J39" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K39" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L39" t="n">
         <v>4.5</v>
@@ -7502,25 +7502,25 @@
         <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O39" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P39" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="R39" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="S39" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T39" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U39" t="n">
         <v>1.73</v>
@@ -7541,7 +7541,7 @@
         <v>15</v>
       </c>
       <c r="AA39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB39" t="n">
         <v>23</v>
@@ -7580,10 +7580,10 @@
         <v>41</v>
       </c>
       <c r="AN39" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP39" t="n">
         <v>19</v>
@@ -7592,13 +7592,13 @@
         <v>29</v>
       </c>
       <c r="AR39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS39" t="n">
         <v>126</v>
       </c>
       <c r="AT39" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU39" t="n">
         <v>8</v>
@@ -7625,7 +7625,7 @@
         <v>81</v>
       </c>
       <c r="BC39" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD39" t="n">
         <v>301</v>
@@ -7663,13 +7663,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H40" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I40" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J40" t="n">
         <v>3.25</v>
@@ -7678,7 +7678,7 @@
         <v>2.25</v>
       </c>
       <c r="L40" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
         <v>1.04</v>
@@ -7693,16 +7693,16 @@
         <v>4</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R40" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S40" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T40" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U40" t="n">
         <v>1.62</v>
@@ -7711,16 +7711,16 @@
         <v>2.2</v>
       </c>
       <c r="W40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X40" t="n">
         <v>15</v>
       </c>
       <c r="Y40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA40" t="n">
         <v>21</v>
@@ -7729,7 +7729,7 @@
         <v>26</v>
       </c>
       <c r="AC40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD40" t="n">
         <v>6.5</v>
@@ -7750,7 +7750,7 @@
         <v>13</v>
       </c>
       <c r="AJ40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK40" t="n">
         <v>23</v>
@@ -7759,10 +7759,10 @@
         <v>19</v>
       </c>
       <c r="AM40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN40" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO40" t="n">
         <v>15</v>
@@ -7780,13 +7780,13 @@
         <v>126</v>
       </c>
       <c r="AT40" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU40" t="n">
         <v>7.5</v>
       </c>
       <c r="AV40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW40" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-23.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
         <v>6</v>
@@ -795,7 +795,7 @@
         <v>1.95</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>7.5</v>
@@ -804,7 +804,7 @@
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
         <v>12</v>
@@ -828,13 +828,13 @@
         <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
         <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>67</v>
@@ -846,10 +846,10 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
@@ -867,7 +867,7 @@
         <v>3.4</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -876,19 +876,19 @@
         <v>501</v>
       </c>
       <c r="AX2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
         <v>34</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC2" t="n">
         <v>201</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
@@ -947,22 +947,22 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>
@@ -986,7 +986,7 @@
         <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>19</v>
@@ -995,7 +995,7 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1010,13 +1010,13 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
@@ -1028,13 +1028,13 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -1043,7 +1043,7 @@
         <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
         <v>2.25</v>
@@ -1129,22 +1129,22 @@
         <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1162,7 +1162,7 @@
         <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
@@ -1177,7 +1177,7 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1189,7 +1189,7 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH4" t="n">
         <v>8</v>
@@ -1231,7 +1231,7 @@
         <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
@@ -1240,7 +1240,7 @@
         <v>81</v>
       </c>
       <c r="AX4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY4" t="n">
         <v>15</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1323,16 +1323,16 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U5" t="n">
         <v>2.5</v>
@@ -1341,7 +1341,7 @@
         <v>1.5</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X5" t="n">
         <v>6</v>
@@ -1350,7 +1350,7 @@
         <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
         <v>17</v>
@@ -1362,10 +1362,10 @@
         <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
         <v>101</v>
@@ -1401,19 +1401,19 @@
         <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
@@ -1428,13 +1428,13 @@
         <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
         <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
         <v>501</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
         <v>2.7</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
         <v>1.83</v>
@@ -1499,10 +1499,10 @@
         <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q6" t="n">
         <v>3.1</v>
@@ -1517,16 +1517,16 @@
         <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
         <v>12</v>
@@ -1541,7 +1541,7 @@
         <v>51</v>
       </c>
       <c r="AC6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD6" t="n">
         <v>5.5</v>
@@ -1562,13 +1562,13 @@
         <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
         <v>51</v>
@@ -1577,7 +1577,7 @@
         <v>4.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
         <v>34</v>
@@ -1595,7 +1595,7 @@
         <v>2.1</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
         <v>81</v>
@@ -1604,10 +1604,10 @@
         <v>81</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
         <v>34</v>
@@ -1616,7 +1616,7 @@
         <v>67</v>
       </c>
       <c r="BB6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC6" t="n">
         <v>351</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -2039,10 +2039,10 @@
         <v>3.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -2072,7 +2072,7 @@
         <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
         <v>12</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
         <v>1.83</v>
@@ -2400,7 +2400,7 @@
         <v>2.4</v>
       </c>
       <c r="L11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2415,10 +2415,10 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S11" t="n">
         <v>1.33</v>
@@ -2427,22 +2427,22 @@
         <v>3.25</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W11" t="n">
         <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA11" t="n">
         <v>12</v>
@@ -2454,10 +2454,10 @@
         <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
         <v>67</v>
@@ -2481,10 +2481,10 @@
         <v>67</v>
       </c>
       <c r="AM11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO11" t="n">
         <v>6.5</v>
@@ -2493,7 +2493,7 @@
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR11" t="n">
         <v>41</v>
@@ -2505,7 +2505,7 @@
         <v>3.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
         <v>67</v>
@@ -2514,7 +2514,7 @@
         <v>51</v>
       </c>
       <c r="AX11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY11" t="n">
         <v>41</v>
@@ -2523,7 +2523,7 @@
         <v>41</v>
       </c>
       <c r="BA11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB11" t="n">
         <v>201</v>
@@ -2567,151 +2567,151 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="I12" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="K12" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="L12" t="n">
-        <v>4.75</v>
+        <v>5.4</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O12" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P12" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R12" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="S12" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="T12" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="U12" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="V12" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="W12" t="n">
+        <v>13</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE12" t="n">
         <v>14.5</v>
       </c>
-      <c r="X12" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB12" t="n">
+      <c r="AF12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>15</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>45</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>16.5</v>
       </c>
       <c r="AR12" t="n">
         <v>26</v>
       </c>
       <c r="AS12" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AT12" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AV12" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AW12" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AX12" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AZ12" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BA12" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB12" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="BC12" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BD12" t="n">
         <v>51</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H13" t="n">
         <v>4.55</v>
       </c>
       <c r="I13" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="J13" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="K13" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="L13" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
@@ -2776,13 +2776,13 @@
         <v>1.09</v>
       </c>
       <c r="P13" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="S13" t="n">
         <v>1.19</v>
@@ -2791,34 +2791,34 @@
         <v>4.15</v>
       </c>
       <c r="U13" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="V13" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="W13" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA13" t="n">
         <v>10.75</v>
       </c>
       <c r="AB13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC13" t="n">
         <v>32</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>12.5</v>
@@ -2830,7 +2830,7 @@
         <v>120</v>
       </c>
       <c r="AH13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI13" t="n">
         <v>40</v>
@@ -2842,25 +2842,25 @@
         <v>90</v>
       </c>
       <c r="AL13" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN13" t="n">
         <v>4.2</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AP13" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AQ13" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AR13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AS13" t="n">
         <v>80</v>
@@ -2869,7 +2869,7 @@
         <v>4.15</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV13" t="n">
         <v>32</v>
@@ -2878,16 +2878,16 @@
         <v>350</v>
       </c>
       <c r="AX13" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AY13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="BA13" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB13" t="n">
         <v>90</v>
@@ -2931,28 +2931,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
         <v>2.05</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.36</v>
@@ -2982,16 +2982,16 @@
         <v>8</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
         <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
         <v>34</v>
@@ -3015,7 +3015,7 @@
         <v>7</v>
       </c>
       <c r="AI14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ14" t="n">
         <v>9.5</v>
@@ -3024,7 +3024,7 @@
         <v>21</v>
       </c>
       <c r="AL14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM14" t="n">
         <v>34</v>
@@ -3033,7 +3033,7 @@
         <v>5</v>
       </c>
       <c r="AO14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP14" t="n">
         <v>29</v>
@@ -3113,28 +3113,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>5.25</v>
+        <v>6.25</v>
       </c>
       <c r="J15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L15" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O15" t="n">
         <v>1.22</v>
@@ -3155,73 +3155,73 @@
         <v>3.25</v>
       </c>
       <c r="U15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.8</v>
       </c>
-      <c r="V15" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA15" t="n">
         <v>12</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
         <v>12</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH15" t="n">
         <v>17</v>
       </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>15</v>
-      </c>
       <c r="AI15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
         <v>41</v>
@@ -3233,7 +3233,7 @@
         <v>3.25</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
@@ -3242,22 +3242,22 @@
         <v>81</v>
       </c>
       <c r="AX15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB15" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC15" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD15" t="n">
         <v>81</v>
@@ -3295,19 +3295,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="H16" t="n">
         <v>3.9</v>
       </c>
       <c r="I16" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L16" t="n">
         <v>2.75</v>
@@ -3337,16 +3337,16 @@
         <v>4.33</v>
       </c>
       <c r="U16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W16" t="n">
         <v>19</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
         <v>11</v>
@@ -3355,7 +3355,7 @@
         <v>29</v>
       </c>
       <c r="AA16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="n">
         <v>19</v>
@@ -3370,13 +3370,13 @@
         <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG16" t="n">
         <v>67</v>
       </c>
       <c r="AH16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI16" t="n">
         <v>17</v>
@@ -3385,7 +3385,7 @@
         <v>10</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
         <v>15</v>
@@ -3400,7 +3400,7 @@
         <v>13</v>
       </c>
       <c r="AP16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ16" t="n">
         <v>41</v>
@@ -3409,7 +3409,7 @@
         <v>41</v>
       </c>
       <c r="AS16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT16" t="n">
         <v>4.33</v>
@@ -3427,7 +3427,7 @@
         <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ16" t="n">
         <v>15</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K17" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -3507,10 +3507,10 @@
         <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R17" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S17" t="n">
         <v>1.29</v>
@@ -3531,7 +3531,7 @@
         <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z17" t="n">
         <v>23</v>
@@ -3549,7 +3549,7 @@
         <v>7.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF17" t="n">
         <v>34</v>
@@ -3561,28 +3561,28 @@
         <v>13</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL17" t="n">
         <v>19</v>
       </c>
       <c r="AM17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
         <v>4.75</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ17" t="n">
         <v>41</v>
@@ -3609,7 +3609,7 @@
         <v>5</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ17" t="n">
         <v>19</v>
@@ -4053,10 +4053,10 @@
         <v>2.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S20" t="n">
         <v>1.5</v>
@@ -4205,10 +4205,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I21" t="n">
         <v>7.5</v>
@@ -4220,7 +4220,7 @@
         <v>2.38</v>
       </c>
       <c r="L21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -4247,10 +4247,10 @@
         <v>3</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W21" t="n">
         <v>6.5</v>
@@ -4268,19 +4268,19 @@
         <v>13</v>
       </c>
       <c r="AB21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG21" t="n">
         <v>351</v>
@@ -4304,7 +4304,7 @@
         <v>51</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO21" t="n">
         <v>6.5</v>
@@ -4325,7 +4325,7 @@
         <v>3</v>
       </c>
       <c r="AU21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV21" t="n">
         <v>67</v>
@@ -4334,7 +4334,7 @@
         <v>126</v>
       </c>
       <c r="AX21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY21" t="n">
         <v>41</v>
@@ -4343,7 +4343,7 @@
         <v>41</v>
       </c>
       <c r="BA21" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB21" t="n">
         <v>201</v>
@@ -4569,13 +4569,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
         <v>2.5</v>
@@ -4584,7 +4584,7 @@
         <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -4611,10 +4611,10 @@
         <v>2.75</v>
       </c>
       <c r="U23" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
@@ -4638,7 +4638,7 @@
         <v>11</v>
       </c>
       <c r="AD23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH23" t="n">
         <v>12</v>
@@ -4710,7 +4710,7 @@
         <v>67</v>
       </c>
       <c r="BB23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC23" t="n">
         <v>201</v>
@@ -4769,10 +4769,10 @@
         <v>8.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O24" t="n">
         <v>1.25</v>
@@ -4957,28 +4957,28 @@
         <v>21</v>
       </c>
       <c r="O25" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R25" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S25" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U25" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="W25" t="n">
         <v>29</v>
@@ -4987,49 +4987,49 @@
         <v>51</v>
       </c>
       <c r="Y25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z25" t="n">
         <v>151</v>
       </c>
       <c r="AA25" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AB25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF25" t="n">
         <v>67</v>
       </c>
-      <c r="AC25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>81</v>
-      </c>
       <c r="AG25" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AH25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AJ25" t="n">
         <v>9.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AL25" t="n">
         <v>11</v>
       </c>
       <c r="AM25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN25" t="n">
         <v>12</v>
@@ -5038,37 +5038,37 @@
         <v>51</v>
       </c>
       <c r="AP25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ25" t="n">
+        <v>251</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS25" t="n">
         <v>301</v>
       </c>
-      <c r="AR25" t="n">
-        <v>251</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>401</v>
-      </c>
       <c r="AT25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU25" t="n">
         <v>10</v>
       </c>
       <c r="AV25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW25" t="n">
         <v>126</v>
       </c>
       <c r="AX25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA25" t="n">
         <v>12</v>
@@ -5077,7 +5077,7 @@
         <v>34</v>
       </c>
       <c r="BC25" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD25" t="n">
         <v>126</v>
@@ -5297,28 +5297,28 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I27" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="J27" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L27" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.36</v>
@@ -5348,10 +5348,10 @@
         <v>10</v>
       </c>
       <c r="X27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z27" t="n">
         <v>41</v>
@@ -5387,7 +5387,7 @@
         <v>9</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL27" t="n">
         <v>17</v>
@@ -5396,10 +5396,10 @@
         <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP27" t="n">
         <v>34</v>
@@ -5420,28 +5420,28 @@
         <v>8.5</v>
       </c>
       <c r="AV27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW27" t="n">
         <v>51</v>
       </c>
       <c r="AX27" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AY27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ27" t="n">
         <v>23</v>
       </c>
       <c r="BA27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB27" t="n">
         <v>51</v>
       </c>
       <c r="BC27" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD27" t="n">
         <v>51</v>
@@ -5843,28 +5843,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H30" t="n">
         <v>2.9</v>
       </c>
       <c r="I30" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J30" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K30" t="n">
         <v>1.91</v>
       </c>
       <c r="L30" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N30" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.5</v>
@@ -5885,22 +5885,22 @@
         <v>2.25</v>
       </c>
       <c r="U30" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V30" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W30" t="n">
         <v>6</v>
       </c>
       <c r="X30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y30" t="n">
         <v>10</v>
       </c>
       <c r="Z30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA30" t="n">
         <v>23</v>
@@ -5912,7 +5912,7 @@
         <v>6</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE30" t="n">
         <v>19</v>
@@ -5924,7 +5924,7 @@
         <v>201</v>
       </c>
       <c r="AH30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
@@ -5933,19 +5933,19 @@
         <v>13</v>
       </c>
       <c r="AK30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL30" t="n">
         <v>34</v>
       </c>
       <c r="AM30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP30" t="n">
         <v>29</v>
@@ -5975,16 +5975,16 @@
         <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ30" t="n">
         <v>34</v>
       </c>
       <c r="BA30" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB30" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC30" t="n">
         <v>351</v>
@@ -7123,16 +7123,16 @@
         <v>3.6</v>
       </c>
       <c r="I37" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J37" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="K37" t="n">
         <v>2.27</v>
       </c>
       <c r="L37" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="M37" t="n">
         <v>1.04</v>
@@ -7156,7 +7156,7 @@
         <v>1.31</v>
       </c>
       <c r="T37" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="U37" t="n">
         <v>1.55</v>
@@ -7165,10 +7165,10 @@
         <v>2.32</v>
       </c>
       <c r="W37" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="X37" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Y37" t="n">
         <v>8.25</v>
@@ -7180,7 +7180,7 @@
         <v>13.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC37" t="n">
         <v>8.5</v>
@@ -7198,10 +7198,10 @@
         <v>250</v>
       </c>
       <c r="AH37" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ37" t="n">
         <v>12</v>
@@ -7210,22 +7210,22 @@
         <v>50</v>
       </c>
       <c r="AL37" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM37" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AN37" t="n">
         <v>4.1</v>
       </c>
       <c r="AO37" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AP37" t="n">
         <v>15</v>
       </c>
       <c r="AQ37" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR37" t="n">
         <v>50</v>
@@ -7234,10 +7234,10 @@
         <v>150</v>
       </c>
       <c r="AT37" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU37" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV37" t="n">
         <v>45</v>
@@ -7249,19 +7249,19 @@
         <v>5.8</v>
       </c>
       <c r="AY37" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AZ37" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA37" t="n">
         <v>90</v>
       </c>
       <c r="BB37" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BC37" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD37" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-23.xlsx
@@ -1114,7 +1114,7 @@
         <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
         <v>6</v>
@@ -1126,31 +1126,31 @@
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
         <v>2.5</v>
@@ -1159,7 +1159,7 @@
         <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X4" t="n">
         <v>6</v>
@@ -1180,10 +1180,10 @@
         <v>6.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>101</v>
@@ -1210,7 +1210,7 @@
         <v>67</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
         <v>9</v>
@@ -1225,13 +1225,13 @@
         <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
         <v>81</v>
@@ -1243,13 +1243,13 @@
         <v>41</v>
       </c>
       <c r="AY4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
         <v>151</v>
       </c>
       <c r="BA4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
         <v>501</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>1.8</v>
@@ -1317,10 +1317,10 @@
         <v>5.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
         <v>3.1</v>
@@ -1341,7 +1341,7 @@
         <v>1.53</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
         <v>12</v>
@@ -1350,7 +1350,7 @@
         <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
         <v>34</v>
@@ -1374,25 +1374,25 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI5" t="n">
         <v>12</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
         <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
         <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
         <v>19</v>
@@ -1422,16 +1422,16 @@
         <v>4.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
         <v>67</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
         <v>351</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
@@ -1863,10 +1863,10 @@
         <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
         <v>2.5</v>
@@ -1875,10 +1875,10 @@
         <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U8" t="n">
         <v>2.1</v>
@@ -1887,13 +1887,13 @@
         <v>1.67</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
         <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
         <v>34</v>
@@ -1905,7 +1905,7 @@
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
@@ -1929,10 +1929,10 @@
         <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
@@ -1956,7 +1956,7 @@
         <v>301</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU8" t="n">
         <v>9</v>
@@ -1968,7 +1968,7 @@
         <v>4.33</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
         <v>29</v>
@@ -3859,10 +3859,10 @@
         <v>4.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
         <v>1.4</v>
@@ -3871,10 +3871,10 @@
         <v>2.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
         <v>1.5</v>
@@ -4587,10 +4587,10 @@
         <v>8.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
         <v>1.25</v>
@@ -4599,10 +4599,10 @@
         <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R23" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-23.xlsx
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
@@ -1854,31 +1854,31 @@
         <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U8" t="n">
         <v>2.1</v>
@@ -1899,19 +1899,19 @@
         <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
@@ -1920,7 +1920,7 @@
         <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI8" t="n">
         <v>10</v>
@@ -1929,10 +1929,10 @@
         <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
@@ -1956,7 +1956,7 @@
         <v>301</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU8" t="n">
         <v>9</v>
@@ -1968,7 +1968,7 @@
         <v>4.33</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
         <v>29</v>
@@ -4587,10 +4587,10 @@
         <v>8.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
         <v>1.25</v>
@@ -4599,10 +4599,10 @@
         <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S23" t="n">
         <v>1.36</v>
@@ -4716,7 +4716,7 @@
         <v>126</v>
       </c>
       <c r="BD23" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24">
